--- a/Data/Migration Map Data.xlsx
+++ b/Data/Migration Map Data.xlsx
@@ -1,41 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evidant-my.sharepoint.com/personal/sdleslie_evidant_com/Documents/Education/UCI Data Boot Camp/Git Master/project_2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxwelloteng/Desktop/DataClass/project_2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{5FC1E408-A01A-4A36-A813-C07D40C6E3CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B7FB2E39-D782-4D5C-851D-E5519E77D953}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D9B7B-486F-CE4A-B932-54251104E0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24600" yWindow="13380" windowWidth="18975" windowHeight="13155" xr2:uid="{0989B1F8-E95E-479E-8A3C-F17C8275F488}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0989B1F8-E95E-479E-8A3C-F17C8275F488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet4!$B$2:$B$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet4!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet4!$G$2:$G$14</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet4!$H$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet4!$H$2:$H$14</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet4!$I$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet4!$I$2:$I$14</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet4!$J$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet4!$J$2:$J$14</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet4!$K$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet4!$K$2:$K$14</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet4!$L$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet4!$C$2:$C$14</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet4!$L$2:$L$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet4!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet4!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet4!$E$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet4!$E$2:$E$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet4!$F$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet4!$F$2:$F$14</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet4!$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="109">
   <si>
     <t>Mexico</t>
   </si>
@@ -260,16 +277,126 @@
   <si>
     <t>Cleaning_and_maint</t>
   </si>
+  <si>
+    <t>Nativity, by sex and age: 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universe: 2018 resident population </t>
+  </si>
+  <si>
+    <t>FOREIGN BORN</t>
+  </si>
+  <si>
+    <t>U.S. BORN</t>
+  </si>
+  <si>
+    <t>Age (years)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Percent of all 
+foreign born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female </t>
+  </si>
+  <si>
+    <t>Percent of all 
+U.S. born</t>
+  </si>
+  <si>
+    <t>Younger than 18</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>18 and older</t>
+  </si>
+  <si>
+    <t>Younger than 5</t>
+  </si>
+  <si>
+    <t>5 to 9</t>
+  </si>
+  <si>
+    <t>10 to 14</t>
+  </si>
+  <si>
+    <t>15 to 19</t>
+  </si>
+  <si>
+    <t>20 to 24</t>
+  </si>
+  <si>
+    <t>25 to 29</t>
+  </si>
+  <si>
+    <t>30 to 34</t>
+  </si>
+  <si>
+    <t>35 to 39</t>
+  </si>
+  <si>
+    <t>40 to 44</t>
+  </si>
+  <si>
+    <t>45 to 49</t>
+  </si>
+  <si>
+    <t>50 to 54</t>
+  </si>
+  <si>
+    <t>55 to 59</t>
+  </si>
+  <si>
+    <t>60 to 64</t>
+  </si>
+  <si>
+    <t>65 to 69</t>
+  </si>
+  <si>
+    <t>70 to 74</t>
+  </si>
+  <si>
+    <t>75 to 79</t>
+  </si>
+  <si>
+    <t>80 to 84</t>
+  </si>
+  <si>
+    <t>85 to 89</t>
+  </si>
+  <si>
+    <t>90 and older</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Source: Pew Research Center tabulations of 2018 American Community Survey (1% IPUMS).</t>
+  </si>
+  <si>
+    <t>"Statistical Portrait of the Foreign-Born Population in the United States, 2018"</t>
+  </si>
+  <si>
+    <t>PEW RESEARCH CENTER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +425,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="5.5"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="5.5"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="5.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="5.5"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +485,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -315,12 +493,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -338,10 +613,154 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2E88EDB1-FF6C-8D44-A2EB-339D38FF6F75}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,6 +773,5318 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Education attainment of foreign-born Americans by Major Regions in 2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 9th_Grade </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$20:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.1530846605958809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.002999672926308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0321121374874895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.567014993184916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6705383461191632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4636591478696737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.797409579041652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3953652282145232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.127008109524837</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.776275294236957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2870809158953014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6927596366742792</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.4967890227474081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 12th_Grade </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$20:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.4496408083961949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.385381316120831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5907638928898367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8907489602628176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2088035854242412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.285010772545399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6351654469368428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.179142527230284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8035355535895139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.134486040873858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4798074063763424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0756754243739719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.951688372658241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> HS_Dropout </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$20:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.28877422873254915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25578080289614102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1882510371048461E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4547626866964714E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5894629346434866E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8356885425362279E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17817710025782549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7843323515272338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10521786995501509</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1475153564973812E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12977894475540383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> HS_Grad </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$20:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>25.209343104250308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.040970233235466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.905680539225763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.473316324747493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2744987535579231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.579694851162994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.443495813129022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.537257626728918</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.82790919419454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.056819166463949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.458536060688505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.606984082707161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.155904033170231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> College_2_Yr </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$20:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>27.997869879135123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.688165342155211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.869381099073891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.677244609093769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.230579263843623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.617816471002069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.412854423943418</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.608978620665521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.416792575005395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.167515932152043</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.081466343568298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.83002376842925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.442201890129844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Bach_Degree </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$20:$H$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18.412250289919271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0105261910328283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.107468411482802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.180372557928212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.894458693562914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.453634085213032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.65051261099029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.928753880221738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.344093851324587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.526509727454135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.302638988187507</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.318880501170987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.673376672611191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Adv_Degree </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$20:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11.205466706607949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8556509674480433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.768000292098797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.20232062349282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.845175804315645</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.631139251637865</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.228464745666905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.468325893638188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4492354181540463</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8571327710359284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.948681771304562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.914805581222357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.163769707028836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> College_Enroll_18-24 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$20:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.7424953159986245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7568502440245013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8563203470285465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7508824660119533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9811886691061109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2940685045948204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5615393613687614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4219681784327154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4498876905524867</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2249625125748955</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4168598941171684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6054221528867636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> College_Enroll_25+ </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$20:$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$K$20:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5410750063640992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0036752301606677</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8283907703418238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2580994652780202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8202092572034161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6749769159741459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2246633895766679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3918511594427478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4033605073967692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6969287162558979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1116081314495769</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0625359577398488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.381069204012086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8AD3-9748-B95D-C7A41537C042}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="956602735"/>
+        <c:axId val="956581311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="956602735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956581311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956581311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="956602735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 9th_Grade </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4380278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3557555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>761904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>469118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>990157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230349</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>125101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 12th_Grade </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11086857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1818941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>471609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33442</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>413320</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>409274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> HS_Dropout </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>587488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2590</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24440</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3326</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> HS_Grad </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>51286386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2619905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1341724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>287480</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51353</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>957705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>124331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1173233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>780777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>773149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> College_2_Yr </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>56959420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1327496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1507372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1003116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>196924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>987259</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>503784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>729619</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>289606</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>432143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Bach_Degree </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>37458246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>524225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2117941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1003877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>967403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>207485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>562591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>234528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>610168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>378827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Adv_Degree </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>22796623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1414465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1245365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>994478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163790</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314062</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>377705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>342688</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>272735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> College_Enroll_18-24 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11682646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183810</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>409655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6582</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27383</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>101943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>107937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> College_Enroll_25+ </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7204033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>407299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>185647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>121530</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v> US </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Mexico </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> East and Southeast Asia </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Central Asia </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> South Asia </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Oceania </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Europe </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Canada and Other North America </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Caribbean </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Central America </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> South America </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Middle East-North Africa </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Sub-Saharan Africa </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>203441977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10462474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8435502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3474289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227430</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4684644</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4216030</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3116026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3161060</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1720770</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1925582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3F88-0648-B4EF-72A8AC368F9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="962240287"/>
+        <c:axId val="1322860511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="962240287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1322860511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1322860511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="962240287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5572E51-3517-024F-8CD7-4CD7B516C773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDB1910-57FA-F94E-A1EC-2B0DBAE41585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,46 +6386,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DDECC5-6D04-4C9B-9DE0-A6112A9F947E}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="4" customWidth="1"/>
-    <col min="15" max="17" width="17.5703125" style="4" customWidth="1"/>
-    <col min="18" max="22" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.28515625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" style="4" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="4" customWidth="1"/>
+    <col min="15" max="17" width="17.5" style="4" customWidth="1"/>
+    <col min="18" max="22" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.33203125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" style="4" customWidth="1"/>
+    <col min="33" max="33" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13" style="4" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="4"/>
+    <col min="39" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -810,7 +6543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -911,7 +6644,7 @@
         <v>1317281</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +6760,7 @@
         <v>68478</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +6876,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +6989,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1372,7 +7105,7 @@
         <v>24066</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +7218,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +7334,7 @@
         <v>15986</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +7450,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +7566,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1946,7 +7679,7 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +7795,7 @@
         <v>15344</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2178,7 +7911,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2305,13 +8038,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F23B32A-F812-49AF-A52A-2BAC6B9977D8}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2352,7 +8085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2393,7 +8126,7 @@
         <v>141661</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2434,7 +8167,7 @@
         <v>92680</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2475,7 +8208,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2516,7 +8249,7 @@
         <v>81342</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2557,7 +8290,7 @@
         <v>335065</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2598,7 +8331,7 @@
         <v>66173</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -2639,7 +8372,7 @@
         <v>68446</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2680,7 +8413,7 @@
         <v>77875</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2721,7 +8454,7 @@
         <v>116271</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2762,7 +8495,7 @@
         <v>121349</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2803,7 +8536,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2844,7 +8577,7 @@
         <v>22537</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2885,7 +8618,7 @@
         <v>107910</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2926,7 +8659,7 @@
         <v>193221</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2967,7 +8700,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -3008,7 +8741,7 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3061,7 +8794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
         <v>20010377</v>
       </c>
@@ -3111,7 +8844,7 @@
         <v>1317281</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +8897,7 @@
         <v>68478</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -3217,7 +8950,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -3270,7 +9003,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3323,7 +9056,7 @@
         <v>24066</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3376,7 +9109,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -3429,7 +9162,7 @@
         <v>15986</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +9215,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3535,7 +9268,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -3588,7 +9321,7 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3641,7 +9374,7 @@
         <v>15344</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -3694,7 +9427,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3747,82 +9480,82 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>20010377</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>8318530</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>4578675</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>13573179</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>13995427</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>9570999</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>4183259</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>8377235</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>17391363</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>19613568</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>916886</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>7269547</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>11784060</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>12504870</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>556905</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>1317281</v>
       </c>
@@ -3830,4 +9563,2325 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EFA374-DFD6-4D43-81D6-E91E4CB45742}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>928523</v>
+      </c>
+      <c r="C2" s="4">
+        <v>775875</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1485420</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2238925</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5753368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1500243</v>
+      </c>
+      <c r="C3" s="4">
+        <v>946080</v>
+      </c>
+      <c r="D3" s="4">
+        <v>926337</v>
+      </c>
+      <c r="E3" s="4">
+        <v>941610</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4334258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>38881</v>
+      </c>
+      <c r="C4" s="4">
+        <v>21083</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20612</v>
+      </c>
+      <c r="E4" s="4">
+        <v>17039</v>
+      </c>
+      <c r="F4" s="4">
+        <v>34239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1148791</v>
+      </c>
+      <c r="C5" s="4">
+        <v>589390</v>
+      </c>
+      <c r="D5" s="4">
+        <v>446589</v>
+      </c>
+      <c r="E5" s="4">
+        <v>470990</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1013222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>61091</v>
+      </c>
+      <c r="C6" s="4">
+        <v>28265</v>
+      </c>
+      <c r="D6" s="4">
+        <v>32969</v>
+      </c>
+      <c r="E6" s="4">
+        <v>34158</v>
+      </c>
+      <c r="F6" s="4">
+        <v>89888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>657376</v>
+      </c>
+      <c r="C7" s="4">
+        <v>358714</v>
+      </c>
+      <c r="D7" s="4">
+        <v>414540</v>
+      </c>
+      <c r="E7" s="4">
+        <v>634284</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2783356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>151646</v>
+      </c>
+      <c r="C8" s="4">
+        <v>67457</v>
+      </c>
+      <c r="D8" s="4">
+        <v>62946</v>
+      </c>
+      <c r="E8" s="4">
+        <v>87060</v>
+      </c>
+      <c r="F8" s="4">
+        <v>457984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>768542</v>
+      </c>
+      <c r="C9" s="4">
+        <v>576927</v>
+      </c>
+      <c r="D9" s="4">
+        <v>470081</v>
+      </c>
+      <c r="E9" s="4">
+        <v>479039</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2169302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>657604</v>
+      </c>
+      <c r="C10" s="4">
+        <v>367185</v>
+      </c>
+      <c r="D10" s="4">
+        <v>559321</v>
+      </c>
+      <c r="E10" s="4">
+        <v>537020</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1469200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>706779</v>
+      </c>
+      <c r="C11" s="4">
+        <v>292896</v>
+      </c>
+      <c r="D11" s="4">
+        <v>366750</v>
+      </c>
+      <c r="E11" s="4">
+        <v>626399</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1311556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>432957</v>
+      </c>
+      <c r="C12" s="4">
+        <v>276164</v>
+      </c>
+      <c r="D12" s="4">
+        <v>183893</v>
+      </c>
+      <c r="E12" s="4">
+        <v>205151</v>
+      </c>
+      <c r="F12" s="4">
+        <v>686733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>547733</v>
+      </c>
+      <c r="C13" s="4">
+        <v>379302</v>
+      </c>
+      <c r="D13" s="4">
+        <v>330441</v>
+      </c>
+      <c r="E13" s="4">
+        <v>303174</v>
+      </c>
+      <c r="F13" s="4">
+        <v>471820</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAC8EC3-A397-F442-8F12-44F5490A7411}">
+  <dimension ref="B1:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4380278</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11086857</v>
+      </c>
+      <c r="E2" s="5">
+        <v>587488</v>
+      </c>
+      <c r="F2" s="4">
+        <v>51286386</v>
+      </c>
+      <c r="G2" s="4">
+        <v>56959420</v>
+      </c>
+      <c r="H2" s="4">
+        <v>37458246</v>
+      </c>
+      <c r="I2" s="4">
+        <v>22796623</v>
+      </c>
+      <c r="J2" s="4">
+        <v>11682646</v>
+      </c>
+      <c r="K2" s="4">
+        <v>7204033</v>
+      </c>
+      <c r="L2" s="9">
+        <f>SUM(C2:K2)</f>
+        <v>203441977</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3557555</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1818941</v>
+      </c>
+      <c r="E3" s="5">
+        <v>26761</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2619905</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1327496</v>
+      </c>
+      <c r="H3" s="4">
+        <v>524225</v>
+      </c>
+      <c r="I3" s="4">
+        <v>194147</v>
+      </c>
+      <c r="J3" s="4">
+        <v>183810</v>
+      </c>
+      <c r="K3" s="4">
+        <v>209634</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3:L14" si="0">SUM(C3:K3)</f>
+        <v>10462474</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>761904</v>
+      </c>
+      <c r="D4" s="4">
+        <v>471609</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3533</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1341724</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1507372</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2117941</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1414465</v>
+      </c>
+      <c r="J4" s="4">
+        <v>409655</v>
+      </c>
+      <c r="K4" s="4">
+        <v>407299</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" si="0"/>
+        <v>8435502</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2938</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2164</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4">
+        <v>16565</v>
+      </c>
+      <c r="G5" s="4">
+        <v>22521</v>
+      </c>
+      <c r="H5" s="4">
+        <v>32253</v>
+      </c>
+      <c r="I5" s="4">
+        <v>25411</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6582</v>
+      </c>
+      <c r="K5" s="4">
+        <v>6018</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="0"/>
+        <v>114452</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>162268</v>
+      </c>
+      <c r="D6" s="4">
+        <v>146226</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2590</v>
+      </c>
+      <c r="F6" s="4">
+        <v>287480</v>
+      </c>
+      <c r="G6" s="4">
+        <v>320697</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1003877</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1245365</v>
+      </c>
+      <c r="J6" s="4">
+        <v>138318</v>
+      </c>
+      <c r="K6" s="4">
+        <v>167468</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>3474289</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12426</v>
+      </c>
+      <c r="D7" s="4">
+        <v>14294</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4">
+        <v>51353</v>
+      </c>
+      <c r="G7" s="4">
+        <v>53714</v>
+      </c>
+      <c r="H7" s="4">
+        <v>48792</v>
+      </c>
+      <c r="I7" s="4">
+        <v>28727</v>
+      </c>
+      <c r="J7" s="4">
+        <v>9766</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8358</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>227430</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>271588</v>
+      </c>
+      <c r="D8" s="4">
+        <v>217141</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2150</v>
+      </c>
+      <c r="F8" s="4">
+        <v>957705</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1003116</v>
+      </c>
+      <c r="H8" s="4">
+        <v>967403</v>
+      </c>
+      <c r="I8" s="4">
+        <v>994478</v>
+      </c>
+      <c r="J8" s="4">
+        <v>119999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>151064</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>4684644</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>19168</v>
+      </c>
+      <c r="D9" s="4">
+        <v>33442</v>
+      </c>
+      <c r="E9" s="5">
+        <v>547</v>
+      </c>
+      <c r="F9" s="4">
+        <v>124331</v>
+      </c>
+      <c r="G9" s="4">
+        <v>196924</v>
+      </c>
+      <c r="H9" s="4">
+        <v>207485</v>
+      </c>
+      <c r="I9" s="4">
+        <v>163790</v>
+      </c>
+      <c r="J9" s="4">
+        <v>27383</v>
+      </c>
+      <c r="K9" s="4">
+        <v>27142</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>800212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>469118</v>
+      </c>
+      <c r="D10" s="4">
+        <v>413320</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7512</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1173233</v>
+      </c>
+      <c r="G10" s="4">
+        <v>987259</v>
+      </c>
+      <c r="H10" s="4">
+        <v>562591</v>
+      </c>
+      <c r="I10" s="4">
+        <v>314062</v>
+      </c>
+      <c r="J10" s="4">
+        <v>103288</v>
+      </c>
+      <c r="K10" s="4">
+        <v>185647</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
+        <v>4216030</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>990157</v>
+      </c>
+      <c r="D11" s="4">
+        <v>409274</v>
+      </c>
+      <c r="E11" s="5">
+        <v>24440</v>
+      </c>
+      <c r="F11" s="4">
+        <v>780777</v>
+      </c>
+      <c r="G11" s="4">
+        <v>503784</v>
+      </c>
+      <c r="H11" s="4">
+        <v>234528</v>
+      </c>
+      <c r="I11" s="4">
+        <v>89029</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>84037</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="0"/>
+        <v>3116026</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>230349</v>
+      </c>
+      <c r="D12" s="4">
+        <v>173220</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3326</v>
+      </c>
+      <c r="F12" s="4">
+        <v>773149</v>
+      </c>
+      <c r="G12" s="4">
+        <v>729619</v>
+      </c>
+      <c r="H12" s="4">
+        <v>610168</v>
+      </c>
+      <c r="I12" s="4">
+        <v>377705</v>
+      </c>
+      <c r="J12" s="4">
+        <v>101943</v>
+      </c>
+      <c r="K12" s="4">
+        <v>161581</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="0"/>
+        <v>3161060</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>115167</v>
+      </c>
+      <c r="D13" s="4">
+        <v>70133</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1402</v>
+      </c>
+      <c r="F13" s="4">
+        <v>285768</v>
+      </c>
+      <c r="G13" s="4">
+        <v>289606</v>
+      </c>
+      <c r="H13" s="4">
+        <v>418472</v>
+      </c>
+      <c r="I13" s="4">
+        <v>342688</v>
+      </c>
+      <c r="J13" s="4">
+        <v>76004</v>
+      </c>
+      <c r="K13" s="4">
+        <v>121530</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>1720770</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>125101</v>
+      </c>
+      <c r="D14" s="4">
+        <v>76093</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2499</v>
+      </c>
+      <c r="F14" s="4">
+        <v>330351</v>
+      </c>
+      <c r="G14" s="4">
+        <v>432143</v>
+      </c>
+      <c r="H14" s="4">
+        <v>378827</v>
+      </c>
+      <c r="I14" s="4">
+        <v>272735</v>
+      </c>
+      <c r="J14" s="4">
+        <v>107937</v>
+      </c>
+      <c r="K14" s="4">
+        <v>199896</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="0"/>
+        <v>1925582</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2.1530846605958809</v>
+      </c>
+      <c r="D20" s="10">
+        <v>5.4496408083961949</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.28877422873254915</v>
+      </c>
+      <c r="F20" s="10">
+        <v>25.209343104250308</v>
+      </c>
+      <c r="G20" s="10">
+        <v>27.997869879135123</v>
+      </c>
+      <c r="H20" s="10">
+        <v>18.412250289919271</v>
+      </c>
+      <c r="I20" s="10">
+        <v>11.205466706607949</v>
+      </c>
+      <c r="J20" s="10">
+        <v>5.7424953159986245</v>
+      </c>
+      <c r="K20" s="10">
+        <v>3.5410750063640992</v>
+      </c>
+      <c r="L20">
+        <f>L2/L2*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>34.002999672926308</v>
+      </c>
+      <c r="D21" s="10">
+        <v>17.385381316120831</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.25578080289614102</v>
+      </c>
+      <c r="F21" s="10">
+        <v>25.040970233235466</v>
+      </c>
+      <c r="G21" s="10">
+        <v>12.688165342155211</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5.0105261910328283</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1.8556509674480433</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1.7568502440245013</v>
+      </c>
+      <c r="K21" s="10">
+        <v>2.0036752301606677</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21:L32" si="1">L3/L3*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>9.0321121374874895</v>
+      </c>
+      <c r="D22" s="10">
+        <v>5.5907638928898367</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4.1882510371048461E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>15.905680539225763</v>
+      </c>
+      <c r="G22" s="10">
+        <v>17.869381099073891</v>
+      </c>
+      <c r="H22" s="10">
+        <v>25.107468411482802</v>
+      </c>
+      <c r="I22" s="10">
+        <v>16.768000292098797</v>
+      </c>
+      <c r="J22" s="10">
+        <v>4.8563203470285465</v>
+      </c>
+      <c r="K22" s="10">
+        <v>4.8283907703418238</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2.567014993184916</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1.8907489602628176</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>14.473316324747493</v>
+      </c>
+      <c r="G23" s="10">
+        <v>19.677244609093769</v>
+      </c>
+      <c r="H23" s="10">
+        <v>28.180372557928212</v>
+      </c>
+      <c r="I23" s="10">
+        <v>22.20232062349282</v>
+      </c>
+      <c r="J23" s="10">
+        <v>5.7508824660119533</v>
+      </c>
+      <c r="K23" s="10">
+        <v>5.2580994652780202</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4.6705383461191632</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4.2088035854242412</v>
+      </c>
+      <c r="E24" s="10">
+        <v>7.4547626866964714E-2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>8.2744987535579231</v>
+      </c>
+      <c r="G24" s="10">
+        <v>9.230579263843623</v>
+      </c>
+      <c r="H24" s="10">
+        <v>28.894458693562914</v>
+      </c>
+      <c r="I24" s="10">
+        <v>35.845175804315645</v>
+      </c>
+      <c r="J24" s="10">
+        <v>3.9811886691061109</v>
+      </c>
+      <c r="K24" s="10">
+        <v>4.8202092572034161</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5.4636591478696737</v>
+      </c>
+      <c r="D25" s="10">
+        <v>6.285010772545399</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>22.579694851162994</v>
+      </c>
+      <c r="G25" s="10">
+        <v>23.617816471002069</v>
+      </c>
+      <c r="H25" s="10">
+        <v>21.453634085213032</v>
+      </c>
+      <c r="I25" s="10">
+        <v>12.631139251637865</v>
+      </c>
+      <c r="J25" s="10">
+        <v>4.2940685045948204</v>
+      </c>
+      <c r="K25" s="10">
+        <v>3.6749769159741459</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="10">
+        <v>5.797409579041652</v>
+      </c>
+      <c r="D26" s="10">
+        <v>4.6351654469368428</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4.5894629346434866E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>20.443495813129022</v>
+      </c>
+      <c r="G26" s="10">
+        <v>21.412854423943418</v>
+      </c>
+      <c r="H26" s="10">
+        <v>20.65051261099029</v>
+      </c>
+      <c r="I26" s="10">
+        <v>21.228464745666905</v>
+      </c>
+      <c r="J26" s="10">
+        <v>2.5615393613687614</v>
+      </c>
+      <c r="K26" s="10">
+        <v>3.2246633895766679</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2.3953652282145232</v>
+      </c>
+      <c r="D27" s="10">
+        <v>4.179142527230284</v>
+      </c>
+      <c r="E27" s="10">
+        <v>6.8356885425362279E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>15.537257626728918</v>
+      </c>
+      <c r="G27" s="10">
+        <v>24.608978620665521</v>
+      </c>
+      <c r="H27" s="10">
+        <v>25.928753880221738</v>
+      </c>
+      <c r="I27" s="10">
+        <v>20.468325893638188</v>
+      </c>
+      <c r="J27" s="10">
+        <v>3.4219681784327154</v>
+      </c>
+      <c r="K27" s="10">
+        <v>3.3918511594427478</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10">
+        <v>11.127008109524837</v>
+      </c>
+      <c r="D28" s="10">
+        <v>9.8035355535895139</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.17817710025782549</v>
+      </c>
+      <c r="F28" s="10">
+        <v>27.82790919419454</v>
+      </c>
+      <c r="G28" s="10">
+        <v>23.416792575005395</v>
+      </c>
+      <c r="H28" s="10">
+        <v>13.344093851324587</v>
+      </c>
+      <c r="I28" s="10">
+        <v>7.4492354181540463</v>
+      </c>
+      <c r="J28" s="10">
+        <v>2.4498876905524867</v>
+      </c>
+      <c r="K28" s="10">
+        <v>4.4033605073967692</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10">
+        <v>31.776275294236957</v>
+      </c>
+      <c r="D29" s="10">
+        <v>13.134486040873858</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.7843323515272338</v>
+      </c>
+      <c r="F29" s="10">
+        <v>25.056819166463949</v>
+      </c>
+      <c r="G29" s="10">
+        <v>16.167515932152043</v>
+      </c>
+      <c r="H29" s="10">
+        <v>7.526509727454135</v>
+      </c>
+      <c r="I29" s="10">
+        <v>2.8571327710359284</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <v>2.6969287162558979</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10">
+        <v>7.2870809158953014</v>
+      </c>
+      <c r="D30" s="10">
+        <v>5.4798074063763424</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.10521786995501509</v>
+      </c>
+      <c r="F30" s="10">
+        <v>24.458536060688505</v>
+      </c>
+      <c r="G30" s="10">
+        <v>23.081466343568298</v>
+      </c>
+      <c r="H30" s="10">
+        <v>19.302638988187507</v>
+      </c>
+      <c r="I30" s="10">
+        <v>11.948681771304562</v>
+      </c>
+      <c r="J30" s="10">
+        <v>3.2249625125748955</v>
+      </c>
+      <c r="K30" s="10">
+        <v>5.1116081314495769</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="10">
+        <v>6.6927596366742792</v>
+      </c>
+      <c r="D31" s="10">
+        <v>4.0756754243739719</v>
+      </c>
+      <c r="E31" s="10">
+        <v>8.1475153564973812E-2</v>
+      </c>
+      <c r="F31" s="10">
+        <v>16.606984082707161</v>
+      </c>
+      <c r="G31" s="10">
+        <v>16.83002376842925</v>
+      </c>
+      <c r="H31" s="10">
+        <v>24.318880501170987</v>
+      </c>
+      <c r="I31" s="10">
+        <v>19.914805581222357</v>
+      </c>
+      <c r="J31" s="10">
+        <v>4.4168598941171684</v>
+      </c>
+      <c r="K31" s="10">
+        <v>7.0625359577398488</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="10">
+        <v>6.4967890227474081</v>
+      </c>
+      <c r="D32" s="10">
+        <v>3.951688372658241</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.12977894475540383</v>
+      </c>
+      <c r="F32" s="10">
+        <v>17.155904033170231</v>
+      </c>
+      <c r="G32" s="10">
+        <v>22.442201890129844</v>
+      </c>
+      <c r="H32" s="10">
+        <v>19.673376672611191</v>
+      </c>
+      <c r="I32" s="10">
+        <v>14.163769707028836</v>
+      </c>
+      <c r="J32" s="10">
+        <v>5.6054221528867636</v>
+      </c>
+      <c r="K32" s="10">
+        <v>10.381069204012086</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCC33E2-2539-CD43-AC4A-8F37F5D6240C}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1292552</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2.9</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1243734</v>
+      </c>
+      <c r="F5" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="22">
+        <v>36206687</v>
+      </c>
+      <c r="J5" s="26">
+        <v>12.8</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="22">
+        <v>34529966</v>
+      </c>
+      <c r="M5" s="26">
+        <v>12.2</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="22">
+        <v>20295267</v>
+      </c>
+      <c r="C6" s="28">
+        <v>45.3</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="22">
+        <v>21929069</v>
+      </c>
+      <c r="F6" s="28">
+        <v>49</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="22">
+        <v>103277898</v>
+      </c>
+      <c r="J6" s="26">
+        <v>36.6</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="22">
+        <v>108392266</v>
+      </c>
+      <c r="M6" s="26">
+        <v>38.4</v>
+      </c>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="32">
+        <v>146340</v>
+      </c>
+      <c r="C7" s="33">
+        <f>B7/(21587819+23172803)*100</f>
+        <v>0.32693915647552885</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="32">
+        <v>143035</v>
+      </c>
+      <c r="F7" s="33">
+        <f>E7/(21587819+23172803)*100</f>
+        <v>0.31955543423860372</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="32">
+        <v>9849806</v>
+      </c>
+      <c r="J7" s="35">
+        <f t="shared" ref="J7:J26" si="0">I7/(139484585+142922232)*100</f>
+        <v>3.4878074490673505</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="32">
+        <v>9430297</v>
+      </c>
+      <c r="M7" s="36">
+        <f t="shared" ref="M7:M26" si="1">L7/(139484585+142922232)*100</f>
+        <v>3.3392596893296664</v>
+      </c>
+      <c r="N7" s="37"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="32">
+        <v>334180</v>
+      </c>
+      <c r="C8" s="33">
+        <f t="shared" ref="C8:C26" si="2">B8/(21587819+23172803)*100</f>
+        <v>0.74659373589580591</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="32">
+        <v>305773</v>
+      </c>
+      <c r="F8" s="33">
+        <f t="shared" ref="F8:F26" si="3">E8/(21587819+23172803)*100</f>
+        <v>0.68312947036348148</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="32">
+        <v>9774299</v>
+      </c>
+      <c r="J8" s="35">
+        <f t="shared" si="0"/>
+        <v>3.4610704882524135</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="32">
+        <v>9438409</v>
+      </c>
+      <c r="M8" s="36">
+        <f t="shared" si="1"/>
+        <v>3.3421321412365201</v>
+      </c>
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="32">
+        <v>440637</v>
+      </c>
+      <c r="C9" s="33">
+        <f t="shared" si="2"/>
+        <v>0.98443001976156641</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="32">
+        <v>428511</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="3"/>
+        <v>0.95733924340908394</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="32">
+        <v>10587622</v>
+      </c>
+      <c r="J9" s="35">
+        <f t="shared" si="0"/>
+        <v>3.7490674313290389</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="32">
+        <v>9940315</v>
+      </c>
+      <c r="M9" s="36">
+        <f t="shared" si="1"/>
+        <v>3.5198566045946409</v>
+      </c>
+      <c r="N9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="32">
+        <v>737922</v>
+      </c>
+      <c r="C10" s="33">
+        <f t="shared" si="2"/>
+        <v>1.6485963934996257</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="32">
+        <v>706233</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="3"/>
+        <v>1.5777997901816467</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="32">
+        <v>10184335</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="0"/>
+        <v>3.6062638672068594</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="32">
+        <v>9695357</v>
+      </c>
+      <c r="M10" s="36">
+        <f t="shared" si="1"/>
+        <v>3.4331171970257359</v>
+      </c>
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1138414</v>
+      </c>
+      <c r="C11" s="33">
+        <f t="shared" si="2"/>
+        <v>2.5433382047282542</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="32">
+        <v>1101009</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="3"/>
+        <v>2.4597714482162472</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="32">
+        <v>10015449</v>
+      </c>
+      <c r="J11" s="35">
+        <f t="shared" si="0"/>
+        <v>3.5464614864449255</v>
+      </c>
+      <c r="K11" s="33"/>
+      <c r="L11" s="32">
+        <v>9523118</v>
+      </c>
+      <c r="M11" s="36">
+        <f t="shared" si="1"/>
+        <v>3.3721275219783382</v>
+      </c>
+      <c r="N11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1611810</v>
+      </c>
+      <c r="C12" s="33">
+        <f t="shared" si="2"/>
+        <v>3.60095532184517</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="32">
+        <v>1572836</v>
+      </c>
+      <c r="F12" s="33">
+        <f t="shared" si="3"/>
+        <v>3.5138832521138781</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="32">
+        <v>10217122</v>
+      </c>
+      <c r="J12" s="35">
+        <f t="shared" si="0"/>
+        <v>3.6178737144294928</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="32">
+        <v>9858804</v>
+      </c>
+      <c r="M12" s="36">
+        <f t="shared" si="1"/>
+        <v>3.4909936327776392</v>
+      </c>
+      <c r="N12" s="37"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="32">
+        <v>2135821</v>
+      </c>
+      <c r="C13" s="33">
+        <f>B13/(21587819+23172803)*100</f>
+        <v>4.7716517433560233</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32">
+        <v>2052479</v>
+      </c>
+      <c r="F13" s="33">
+        <f>E13/(21587819+23172803)*100</f>
+        <v>4.5854568330171999</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="32">
+        <v>8977604</v>
+      </c>
+      <c r="J13" s="35">
+        <f t="shared" si="0"/>
+        <v>3.1789615050262761</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="32">
+        <v>8850541</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" si="1"/>
+        <v>3.1339686109630982</v>
+      </c>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="32">
+        <v>2287570</v>
+      </c>
+      <c r="C14" s="33">
+        <f t="shared" si="2"/>
+        <v>5.1106751823064478</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32">
+        <v>2349873</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="3"/>
+        <v>5.2498667243721497</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="32">
+        <v>8527578</v>
+      </c>
+      <c r="J14" s="35">
+        <f t="shared" si="0"/>
+        <v>3.019607703025101</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="32">
+        <v>8487318</v>
+      </c>
+      <c r="M14" s="36">
+        <f t="shared" si="1"/>
+        <v>3.0053516732211176</v>
+      </c>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="32">
+        <v>2317860</v>
+      </c>
+      <c r="C15" s="33">
+        <f t="shared" si="2"/>
+        <v>5.178346270523229</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="32">
+        <v>2388490</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" si="3"/>
+        <v>5.3361412180554595</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="32">
+        <v>7637344</v>
+      </c>
+      <c r="J15" s="35">
+        <f t="shared" si="0"/>
+        <v>2.7043766439958139</v>
+      </c>
+      <c r="K15" s="33"/>
+      <c r="L15" s="32">
+        <v>7691257</v>
+      </c>
+      <c r="M15" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7234671888249782</v>
+      </c>
+      <c r="N15" s="37"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="32">
+        <v>2231010</v>
+      </c>
+      <c r="C16" s="33">
+        <f t="shared" si="2"/>
+        <v>4.9843141143123528</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="32">
+        <v>2366248</v>
+      </c>
+      <c r="F16" s="33">
+        <f t="shared" si="3"/>
+        <v>5.2864502195702281</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="32">
+        <v>8008345</v>
+      </c>
+      <c r="J16" s="35">
+        <f t="shared" si="0"/>
+        <v>2.8357477645449332</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="32">
+        <v>8139227</v>
+      </c>
+      <c r="M16" s="36">
+        <f t="shared" si="1"/>
+        <v>2.882092963074613</v>
+      </c>
+      <c r="N16" s="37"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="32">
+        <v>2001249</v>
+      </c>
+      <c r="C17" s="33">
+        <f t="shared" si="2"/>
+        <v>4.4710035530784173</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="32">
+        <v>2107555</v>
+      </c>
+      <c r="F17" s="33">
+        <f t="shared" si="3"/>
+        <v>4.7085024868510539</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="32">
+        <v>8248656</v>
+      </c>
+      <c r="J17" s="35">
+        <f t="shared" si="0"/>
+        <v>2.9208416735917533</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="32">
+        <v>8490048</v>
+      </c>
+      <c r="M17" s="36">
+        <f t="shared" si="1"/>
+        <v>3.0063183637666935</v>
+      </c>
+      <c r="N17" s="37"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="32">
+        <v>1706694</v>
+      </c>
+      <c r="C18" s="33">
+        <f t="shared" si="2"/>
+        <v>3.8129362902955188</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="32">
+        <v>1865411</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="3"/>
+        <v>4.1675269838743523</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="32">
+        <v>8768096</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>3.104774910585816</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="32">
+        <v>9226408</v>
+      </c>
+      <c r="M18" s="36">
+        <f t="shared" si="1"/>
+        <v>3.2670627777374084</v>
+      </c>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="32">
+        <v>1436260</v>
+      </c>
+      <c r="C19" s="33">
+        <f t="shared" si="2"/>
+        <v>3.2087579122560004</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="32">
+        <v>1633787</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="3"/>
+        <v>3.6500542820875013</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="32">
+        <v>8476892</v>
+      </c>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>3.0016598359946816</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="32">
+        <v>9168636</v>
+      </c>
+      <c r="M19" s="36">
+        <f t="shared" si="1"/>
+        <v>3.2466057644777035</v>
+      </c>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="32">
+        <v>1089517</v>
+      </c>
+      <c r="C20" s="33">
+        <f t="shared" si="2"/>
+        <v>2.4340970954335712</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="32">
+        <v>1294019</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" si="3"/>
+        <v>2.8909763586395201</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="32">
+        <v>6970346</v>
+      </c>
+      <c r="J20" s="35">
+        <f t="shared" si="0"/>
+        <v>2.4681932518647383</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="32">
+        <v>7745641</v>
+      </c>
+      <c r="M20" s="36">
+        <f t="shared" si="1"/>
+        <v>2.7427245143306864</v>
+      </c>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="32">
+        <v>796533</v>
+      </c>
+      <c r="C21" s="33">
+        <f t="shared" si="2"/>
+        <v>1.7795396140831108</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="32">
+        <v>1026998</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" si="3"/>
+        <v>2.2944229863472407</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="32">
+        <v>5422490</v>
+      </c>
+      <c r="J21" s="35">
+        <f t="shared" si="0"/>
+        <v>1.9200988338748213</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="32">
+        <v>6242176</v>
+      </c>
+      <c r="M21" s="36">
+        <f t="shared" si="1"/>
+        <v>2.21034890953075</v>
+      </c>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="32">
+        <v>534591</v>
+      </c>
+      <c r="C22" s="33">
+        <f t="shared" si="2"/>
+        <v>1.1943332690953223</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="32">
+        <v>747149</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="3"/>
+        <v>1.6692104948854376</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="32">
+        <v>3650991</v>
+      </c>
+      <c r="J22" s="35">
+        <f t="shared" si="0"/>
+        <v>1.2928126306526093</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="32">
+        <v>4424393</v>
+      </c>
+      <c r="M22" s="36">
+        <f t="shared" si="1"/>
+        <v>1.5666735835204715</v>
+      </c>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="32">
+        <v>353638</v>
+      </c>
+      <c r="C23" s="33">
+        <f t="shared" si="2"/>
+        <v>0.79006498167071937</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="32">
+        <v>533531</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="3"/>
+        <v>1.1919651161237215</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="32">
+        <v>2223026</v>
+      </c>
+      <c r="J23" s="35">
+        <f t="shared" si="0"/>
+        <v>0.78717150797390278</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="32">
+        <v>3034225</v>
+      </c>
+      <c r="M23" s="36">
+        <f t="shared" si="1"/>
+        <v>1.0744163445601245</v>
+      </c>
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="32">
+        <v>185078</v>
+      </c>
+      <c r="C24" s="33">
+        <f t="shared" si="2"/>
+        <v>0.41348397705465306</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="32">
+        <v>324736</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" si="3"/>
+        <v>0.72549483338278908</v>
+      </c>
+      <c r="G24" s="33"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="32">
+        <v>1276108</v>
+      </c>
+      <c r="J24" s="35">
+        <f t="shared" si="0"/>
+        <v>0.45186869550673769</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32">
+        <v>2020275</v>
+      </c>
+      <c r="M24" s="36">
+        <f t="shared" si="1"/>
+        <v>0.71537756115851836</v>
+      </c>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="40">
+        <v>102695</v>
+      </c>
+      <c r="C25" s="41">
+        <f t="shared" si="2"/>
+        <v>0.22943157492315455</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="40">
+        <v>225130</v>
+      </c>
+      <c r="F25" s="43">
+        <f t="shared" si="3"/>
+        <v>0.50296441367593148</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="40">
+        <v>668476</v>
+      </c>
+      <c r="J25" s="44">
+        <f t="shared" si="0"/>
+        <v>0.23670675060227034</v>
+      </c>
+      <c r="K25" s="43"/>
+      <c r="L25" s="40">
+        <v>1515787</v>
+      </c>
+      <c r="M25" s="45">
+        <f t="shared" si="1"/>
+        <v>0.53673881392176159</v>
+      </c>
+      <c r="N25" s="46"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="48">
+        <v>21587819</v>
+      </c>
+      <c r="C26" s="49">
+        <f t="shared" si="2"/>
+        <v>48.22948841059447</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="48">
+        <v>23172803</v>
+      </c>
+      <c r="F26" s="51">
+        <f t="shared" si="3"/>
+        <v>51.77051158940553</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="48">
+        <v>139484585</v>
+      </c>
+      <c r="J26" s="49">
+        <f t="shared" si="0"/>
+        <v>49.391366143969535</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="48">
+        <v>142922232</v>
+      </c>
+      <c r="M26" s="52">
+        <f t="shared" si="1"/>
+        <v>50.608633856030458</v>
+      </c>
+      <c r="N26" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="54"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A28:M28"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Migration Map Data.xlsx
+++ b/Data/Migration Map Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="8_{5FC1E408-A01A-4A36-A813-C07D40C6E3CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B7FB2E39-D782-4D5C-851D-E5519E77D953}"/>
   <bookViews>
-    <workbookView xWindow="24600" yWindow="13380" windowWidth="18975" windowHeight="13155" xr2:uid="{0989B1F8-E95E-479E-8A3C-F17C8275F488}"/>
+    <workbookView xWindow="18270" yWindow="9915" windowWidth="26625" windowHeight="13155" xr2:uid="{0989B1F8-E95E-479E-8A3C-F17C8275F488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DDECC5-6D04-4C9B-9DE0-A6112A9F947E}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Data/Migration Map Data.xlsx
+++ b/Data/Migration Map Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxwelloteng/Desktop/DataClass/project_2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evidant-my.sharepoint.com/personal/sdleslie_evidant_com/Documents/Education/UCI Data Boot Camp/Git Master/project_2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F90500-7856-EA46-9CA4-EBFD60233540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{72F90500-7856-EA46-9CA4-EBFD60233540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8455B99-FE7C-4F6E-B9EE-57643D306A81}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="700" windowWidth="26620" windowHeight="16060" activeTab="9" xr2:uid="{0989B1F8-E95E-479E-8A3C-F17C8275F488}"/>
+    <workbookView xWindow="18165" yWindow="16245" windowWidth="24465" windowHeight="13725" xr2:uid="{0989B1F8-E95E-479E-8A3C-F17C8275F488}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -444,7 +453,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,13 +558,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -679,7 +722,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -932,7 +975,19 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,18 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -977,6 +1020,29 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1961,7 +2027,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>workforce!$A$15</c:f>
+              <c:f>workforce!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1989,6 +2055,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2009,6 +2080,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2029,6 +2105,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2049,6 +2130,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2069,6 +2155,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2089,6 +2180,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2111,6 +2207,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2133,6 +2234,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2155,6 +2261,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2177,6 +2288,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2199,6 +2315,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2221,6 +2342,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2244,6 +2370,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -2267,6 +2398,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -2290,6 +2426,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -2313,10 +2454,15 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-75C1-4E1B-A372-7026A0E6F8E0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>workforce!$B$14:$Q$14</c:f>
+              <c:f>workforce!$B$15:$Q$15</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -2372,7 +2518,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>workforce!$B$15:$Q$15</c:f>
+              <c:f>workforce!$B$16:$Q$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="16"/>
@@ -20346,13 +20492,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20382,13 +20528,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20424,7 +20570,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -20452,16 +20598,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20788,1644 +20934,1653 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DDECC5-6D04-4C9B-9DE0-A6112A9F947E}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14:AL14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="4" customWidth="1"/>
-    <col min="15" max="17" width="17.5" style="4" customWidth="1"/>
-    <col min="18" max="22" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.33203125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" style="4" customWidth="1"/>
-    <col min="33" max="33" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13" style="4" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="4"/>
+    <col min="1" max="1" width="30.7109375" style="108" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="108" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="108" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="108" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="108" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="108" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="108" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="108" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="109" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="108" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="108" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="108" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="108" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="108" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="17.42578125" style="108" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="108" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="17.140625" style="108" customWidth="1"/>
+    <col min="22" max="23" width="15" style="108" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" style="108" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" style="108" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="108" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" style="108" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" style="108" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" style="108" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" style="108" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" style="108" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13" style="108" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:38" s="105" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="107" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116">
         <v>4380278</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="116">
         <v>11086857</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="113">
         <v>587488</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="116">
         <v>51286386</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="116">
         <v>56959420</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="116">
         <v>37458246</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="116">
         <v>22796623</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="116">
         <v>11682646</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="116">
         <v>7204033</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="116">
         <v>49000</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="116">
         <v>35000</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="116">
         <v>20744178</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="116">
         <v>20248951</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="116">
         <v>20666522</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="116">
         <v>21103134</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="116">
         <v>20231215</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="116">
         <v>20010377</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="116">
         <v>8318530</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="116">
         <v>4578675</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="116">
         <v>13573179</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="116">
         <v>13995427</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AB2" s="116">
         <v>9570999</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="108">
         <v>4183259</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="108">
         <v>8377235</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AE2" s="108">
         <v>17391363</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="108">
         <v>19613568</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="108">
         <v>916886</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="108">
         <v>7269547</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="108">
         <v>11784060</v>
       </c>
-      <c r="AJ2" s="4">
+      <c r="AJ2" s="108">
         <v>12504870</v>
       </c>
-      <c r="AK2" s="4">
+      <c r="AK2" s="108">
         <v>556905</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AL2" s="108">
         <v>1317281</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="116">
         <v>928523</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="116">
         <v>775875</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="116">
         <v>1485420</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="116">
         <v>2238925</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="116">
         <v>5753368</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="116">
         <v>3557555</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="116">
         <v>1818941</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="113">
         <v>26761</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="116">
         <v>2619905</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="116">
         <v>1327496</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="116">
         <v>524225</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="116">
         <v>194147</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="116">
         <v>183810</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="116">
         <v>209634</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="116">
         <v>30000</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="116">
         <v>26000</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="116">
         <v>1117832</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="116">
         <v>1260632</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="116">
         <v>1064728</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="116">
         <v>745267</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="116">
         <v>361893</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="117">
         <v>367891</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="117">
         <v>111490</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="117">
         <v>60568</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="117">
         <v>215812</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="117">
         <v>312621</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="117">
         <v>821912</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="110">
         <v>787212</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="110">
         <v>216708</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="110">
         <v>494685</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="110">
         <v>482108</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="110">
         <v>473083</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="110">
         <v>1316937</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="110">
         <v>1001810</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="110">
         <v>851937</v>
       </c>
-      <c r="AK3" s="6">
+      <c r="AK3" s="110">
         <v>6356</v>
       </c>
-      <c r="AL3" s="6">
+      <c r="AL3" s="110">
         <v>68478</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="116">
         <v>1500243</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="116">
         <v>946080</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="116">
         <v>926337</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="116">
         <v>941610</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="116">
         <v>4334258</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="116">
         <v>761904</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="116">
         <v>471609</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="113">
         <v>3533</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="116">
         <v>1341724</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="116">
         <v>1507372</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="116">
         <v>2117941</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="116">
         <v>1414465</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="116">
         <v>409655</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="116">
         <v>407299</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="116">
         <v>50000</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="116">
         <v>39000</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="116">
         <v>645308</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="116">
         <v>522321</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="116">
         <v>559489</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="116">
         <v>694044</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="116">
         <v>930333</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="117">
         <v>770393</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="117">
         <v>701074</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="117">
         <v>97458</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="117">
         <v>448148</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="117">
         <v>797190</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="117">
         <v>447055</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="110">
         <v>146691</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="110">
         <v>388236</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="110">
         <v>525913</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="110">
         <v>559092</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="110">
         <v>15351</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4" s="110">
         <v>87448</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="110">
         <v>465487</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="110">
         <v>297208</v>
       </c>
-      <c r="AK4" s="6">
+      <c r="AK4" s="110">
         <v>10277</v>
       </c>
-      <c r="AL4" s="6">
+      <c r="AL4" s="110">
         <v>39188</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="116">
         <v>38881</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="116">
         <v>21083</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="116">
         <v>20612</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="116">
         <v>17039</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="116">
         <v>34239</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="116">
         <v>2938</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="116">
         <v>2164</v>
       </c>
-      <c r="J5" s="4">
+      <c r="I5" s="113"/>
+      <c r="J5" s="116">
         <v>16565</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="116">
         <v>22521</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="116">
         <v>32253</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="116">
         <v>25411</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="116">
         <v>6582</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="116">
         <v>6018</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="116">
         <v>45000</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="116">
         <v>32000</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="116">
         <v>13465</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="116">
         <v>7659</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="116">
         <v>9633</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="116">
         <v>9685</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="116">
         <v>10376</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="117">
         <v>10560</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="117">
         <v>6254</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="117">
         <v>1656</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="117">
         <v>6787</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="117">
         <v>17153</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="117">
         <v>4373</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="110">
         <v>2776</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="110">
         <v>5757</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="110">
         <v>7961</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="110">
         <v>7078</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="111">
         <v>0</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AH5" s="110">
         <v>4097</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="110">
         <v>5342</v>
       </c>
-      <c r="AJ5" s="6">
+      <c r="AJ5" s="110">
         <v>11118</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="111">
         <v>83</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="111">
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="116">
         <v>1148791</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="116">
         <v>589390</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="116">
         <v>446589</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="116">
         <v>470990</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="116">
         <v>1013222</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="116">
         <v>162268</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="116">
         <v>146226</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="113">
         <v>2590</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="116">
         <v>287480</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="116">
         <v>320697</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="116">
         <v>1003877</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="116">
         <v>1245365</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="116">
         <v>138318</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="116">
         <v>167468</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="116">
         <v>80000</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="116">
         <v>62000</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="116">
         <v>152752</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="116">
         <v>153246</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="116">
         <v>200924</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="116">
         <v>333207</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="116">
         <v>628139</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="117">
         <v>410795</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="117">
         <v>744866</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="117">
         <v>29391</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="117">
         <v>172756</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="117">
         <v>260796</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="117">
         <v>82534</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="110">
         <v>27050</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="110">
         <v>62512</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="110">
         <v>273505</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="110">
         <v>157368</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="110">
         <v>3970</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="110">
         <v>18523</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="110">
         <v>92958</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="110">
         <v>149425</v>
       </c>
-      <c r="AK6" s="6">
+      <c r="AK6" s="110">
         <v>1178</v>
       </c>
-      <c r="AL6" s="6">
+      <c r="AL6" s="110">
         <v>24066</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="116">
         <v>61091</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="116">
         <v>28265</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="116">
         <v>32969</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="116">
         <v>34158</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="116">
         <v>89888</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="116">
         <v>12426</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="116">
         <v>14294</v>
       </c>
-      <c r="J7" s="4">
+      <c r="I7" s="113"/>
+      <c r="J7" s="116">
         <v>51353</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="116">
         <v>53714</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="116">
         <v>48792</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="116">
         <v>28727</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="116">
         <v>9766</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="116">
         <v>8358</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="116">
         <v>56000</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="116">
         <v>40000</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="116">
         <v>12483</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="116">
         <v>17258</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="116">
         <v>16351</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="116">
         <v>20960</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="116">
         <v>28837</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="117">
         <v>28858</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="117">
         <v>15152</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="117">
         <v>4219</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="117">
         <v>17184</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="117">
         <v>16466</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="117">
         <v>10321</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC7" s="110">
         <v>5240</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="110">
         <v>8889</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="110">
         <v>16158</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="110">
         <v>17864</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7" s="110">
         <v>1325</v>
       </c>
-      <c r="AH7" s="6">
+      <c r="AH7" s="110">
         <v>4977</v>
       </c>
-      <c r="AI7" s="6">
+      <c r="AI7" s="110">
         <v>12533</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="110">
         <v>12690</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="111">
         <v>416</v>
       </c>
-      <c r="AL7" s="6">
+      <c r="AL7" s="110">
         <v>1696</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="116">
         <v>657376</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="116">
         <v>358714</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="116">
         <v>414540</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="116">
         <v>634284</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="116">
         <v>2783356</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="116">
         <v>271588</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="116">
         <v>217141</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="113">
         <v>2150</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="116">
         <v>957705</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="116">
         <v>1003116</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="116">
         <v>967403</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="116">
         <v>994478</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="116">
         <v>119999</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="116">
         <v>151064</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="116">
         <v>62000</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="116">
         <v>48600</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="116">
         <v>464035</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="116">
         <v>403162</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="116">
         <v>394804</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="116">
         <v>441374</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="116">
         <v>636009</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="117">
         <v>512774</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="117">
         <v>319008</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="117">
         <v>70541</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="117">
         <v>329190</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="117">
         <v>302199</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="117">
         <v>128770</v>
       </c>
-      <c r="AC8" s="6">
+      <c r="AC8" s="110">
         <v>105995</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="110">
         <v>141259</v>
       </c>
-      <c r="AE8" s="6">
+      <c r="AE8" s="110">
         <v>276968</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="110">
         <v>302874</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="110">
         <v>6559</v>
       </c>
-      <c r="AH8" s="6">
+      <c r="AH8" s="110">
         <v>150276</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="110">
         <v>191971</v>
       </c>
-      <c r="AJ8" s="6">
+      <c r="AJ8" s="110">
         <v>183436</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AK8" s="110">
         <v>4055</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AL8" s="110">
         <v>15986</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="116">
         <v>151646</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="116">
         <v>67457</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="116">
         <v>62946</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="116">
         <v>87060</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="116">
         <v>457984</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="116">
         <v>19168</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="116">
         <v>33442</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="113">
         <v>547</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="116">
         <v>124331</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="116">
         <v>196924</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="116">
         <v>207485</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="116">
         <v>163790</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="116">
         <v>27383</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="116">
         <v>27142</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="116">
         <v>77000</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="116">
         <v>56000</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="116">
         <v>72741</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="116">
         <v>58409</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="116">
         <v>70938</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="116">
         <v>72963</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="116">
         <v>135332</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="117">
         <v>105201</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="117">
         <v>58508</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="117">
         <v>18262</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="117">
         <v>67957</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="117">
         <v>60699</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="117">
         <v>14727</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="110">
         <v>6934</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="110">
         <v>17993</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="110">
         <v>53662</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="110">
         <v>53519</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="110">
         <v>2097</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AH9" s="110">
         <v>14822</v>
       </c>
-      <c r="AI9" s="6">
+      <c r="AI9" s="110">
         <v>20568</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="110">
         <v>21666</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="111">
         <v>322</v>
       </c>
-      <c r="AL9" s="6">
+      <c r="AL9" s="110">
         <v>1594</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="116">
         <v>768542</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="116">
         <v>576927</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="116">
         <v>470081</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="116">
         <v>479039</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="116">
         <v>2169302</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="116">
         <v>469118</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="116">
         <v>413320</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="113">
         <v>7512</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="116">
         <v>1173233</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="116">
         <v>987259</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="116">
         <v>562591</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="116">
         <v>314062</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="116">
         <v>103288</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="116">
         <v>185647</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="116">
         <v>35000</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="116">
         <v>29400</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="116">
         <v>526856</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="116">
         <v>430911</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="116">
         <v>386883</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="116">
         <v>319706</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="116">
         <v>253729</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="117">
         <v>227531</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="117">
         <v>83025</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="117">
         <v>65335</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="117">
         <v>157404</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="117">
         <v>466385</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="117">
         <v>178265</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="110">
         <v>223699</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="110">
         <v>187967</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="110">
         <v>255489</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="110">
         <v>296439</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="110">
         <v>9904</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AH10" s="110">
         <v>165738</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="110">
         <v>238654</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="110">
         <v>380618</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AK10" s="110">
         <v>3388</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="110">
         <v>38632</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="116">
         <v>657604</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="116">
         <v>367185</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="116">
         <v>559321</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="116">
         <v>537020</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="116">
         <v>1469200</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="116">
         <v>990157</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="116">
         <v>409274</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="113">
         <v>24440</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="116">
         <v>780777</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="116">
         <v>503784</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="116">
         <v>234528</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="116">
         <v>89029</v>
       </c>
-      <c r="O11" s="4">
+      <c r="N11" s="116"/>
+      <c r="O11" s="116">
         <v>84037</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="116">
         <v>30000</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="116">
         <v>25200</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="116">
         <v>313847</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="116">
         <v>364005</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="116">
         <v>302928</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="116">
         <v>233591</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="116">
         <v>142635</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="117">
         <v>131186</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="117">
         <v>38518</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="117">
         <v>22168</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Z11" s="117">
         <v>75202</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="117">
         <v>109156</v>
       </c>
-      <c r="AB11" s="6">
+      <c r="AB11" s="117">
         <v>253526</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC11" s="110">
         <v>340261</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="110">
         <v>90115</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="110">
         <v>157791</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="110">
         <v>160879</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG11" s="110">
         <v>48009</v>
       </c>
-      <c r="AH11" s="6">
+      <c r="AH11" s="110">
         <v>472636</v>
       </c>
-      <c r="AI11" s="6">
+      <c r="AI11" s="110">
         <v>275088</v>
       </c>
-      <c r="AJ11" s="6">
+      <c r="AJ11" s="110">
         <v>278768</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AK11" s="110">
         <v>3605</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AL11" s="110">
         <v>21807</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="116">
         <v>706779</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="116">
         <v>292896</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="116">
         <v>366750</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="116">
         <v>626399</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="116">
         <v>1311556</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="116">
         <v>230349</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="116">
         <v>173220</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="113">
         <v>3326</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="116">
         <v>773149</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="116">
         <v>729619</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="116">
         <v>610168</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="116">
         <v>377705</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="116">
         <v>101943</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="116">
         <v>161581</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="116">
         <v>40000</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="116">
         <v>31200</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="116">
         <v>260250</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="116">
         <v>267990</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="116">
         <v>282476</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="116">
         <v>269308</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="116">
         <v>251520</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="117">
         <v>273881</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="117">
         <v>118525</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="Y12" s="117">
         <v>47565</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="Z12" s="117">
         <v>190601</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="117">
         <v>182905</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="117">
         <v>156627</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="110">
         <v>220492</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="110">
         <v>128878</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="110">
         <v>226007</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="110">
         <v>243198</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="110">
         <v>5649</v>
       </c>
-      <c r="AH12" s="6">
+      <c r="AH12" s="110">
         <v>192749</v>
       </c>
-      <c r="AI12" s="6">
+      <c r="AI12" s="110">
         <v>170932</v>
       </c>
-      <c r="AJ12" s="6">
+      <c r="AJ12" s="110">
         <v>195344</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AK12" s="110">
         <v>2521</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AL12" s="110">
         <v>15344</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="116">
         <v>432957</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="116">
         <v>276164</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="116">
         <v>183893</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="116">
         <v>205151</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="116">
         <v>686733</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="116">
         <v>115167</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="116">
         <v>70133</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="113">
         <v>1402</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="116">
         <v>285768</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="116">
         <v>289606</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="116">
         <v>418472</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="116">
         <v>342688</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="116">
         <v>76004</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="116">
         <v>121530</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="116">
         <v>60000</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="116">
         <v>40000</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="116">
         <v>197391</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="116">
         <v>136843</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="116">
         <v>126084</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="116">
         <v>129897</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="116">
         <v>194614</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="117">
         <v>155525</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="117">
         <v>116494</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="117">
         <v>20330</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="117">
         <v>122535</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="117">
         <v>115503</v>
       </c>
-      <c r="AB13" s="6">
+      <c r="AB13" s="117">
         <v>60899</v>
       </c>
-      <c r="AC13" s="6">
+      <c r="AC13" s="110">
         <v>22133</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="110">
         <v>45021</v>
       </c>
-      <c r="AE13" s="6">
+      <c r="AE13" s="110">
         <v>175309</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="110">
         <v>89201</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="110">
         <v>1283</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AH13" s="110">
         <v>24539</v>
       </c>
-      <c r="AI13" s="6">
+      <c r="AI13" s="110">
         <v>68020</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="110">
         <v>94700</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="111">
         <v>570</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AL13" s="110">
         <v>14942</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="116">
         <v>547733</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="116">
         <v>379302</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="116">
         <v>330441</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="116">
         <v>303174</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="116">
         <v>471820</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="116">
         <v>125101</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="116">
         <v>76093</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="113">
         <v>2499</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="116">
         <v>330351</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="116">
         <v>432143</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="116">
         <v>378827</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="116">
         <v>272735</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="116">
         <v>107937</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="116">
         <v>199896</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="116">
         <v>42000</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="116">
         <v>32000</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="116">
         <v>183461</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="116">
         <v>182741</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="116">
         <v>181513</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="116">
         <v>166382</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="116">
         <v>140541</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="117">
         <v>141661</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="117">
         <v>92680</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="117">
         <v>44282</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="117">
         <v>81342</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="117">
         <v>335065</v>
       </c>
-      <c r="AB14" s="6">
+      <c r="AB14" s="117">
         <v>66173</v>
       </c>
-      <c r="AC14" s="6">
+      <c r="AC14" s="110">
         <v>68446</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AD14" s="110">
         <v>77875</v>
       </c>
-      <c r="AE14" s="6">
+      <c r="AE14" s="110">
         <v>116271</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="110">
         <v>121349</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AG14" s="110">
         <v>2160</v>
       </c>
-      <c r="AH14" s="6">
+      <c r="AH14" s="110">
         <v>22537</v>
       </c>
-      <c r="AI14" s="6">
+      <c r="AI14" s="110">
         <v>107910</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="110">
         <v>193221</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="110">
         <v>1993</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AL14" s="110">
         <v>16584</v>
       </c>
     </row>
@@ -22438,15 +22593,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E97E90-7392-124D-A91D-B8CC953AE284}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="32">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -22499,7 +22654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -22552,7 +22707,7 @@
         <v>68478</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -22605,7 +22760,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -22658,7 +22813,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -22711,7 +22866,7 @@
         <v>24066</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -22764,7 +22919,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -22817,7 +22972,7 @@
         <v>15986</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -22870,7 +23025,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -22923,7 +23078,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22976,7 +23131,7 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -23029,7 +23184,7 @@
         <v>15344</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -23082,7 +23237,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -23135,106 +23290,125 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="32">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q15" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="6">
         <v>141661</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <v>92680</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D16" s="6">
         <v>44282</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>81342</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="6">
         <v>335065</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>66173</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <v>68446</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="6">
         <v>77875</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="6">
         <v>116271</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K16" s="6">
         <v>121349</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L16" s="6">
         <v>2160</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M16" s="6">
         <v>22537</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N16" s="6">
         <v>107910</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O16" s="6">
         <v>193221</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P16" s="6">
         <v>1993</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q16" s="6">
         <v>16584</v>
       </c>
     </row>
@@ -23252,9 +23426,9 @@
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -23274,7 +23448,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -23294,7 +23468,7 @@
         <v>361893</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -23314,7 +23488,7 @@
         <v>930333</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -23334,7 +23508,7 @@
         <v>10376</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -23354,7 +23528,7 @@
         <v>628139</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -23374,7 +23548,7 @@
         <v>28837</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -23394,7 +23568,7 @@
         <v>636009</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -23414,7 +23588,7 @@
         <v>135332</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -23434,7 +23608,7 @@
         <v>253729</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -23454,7 +23628,7 @@
         <v>142635</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -23474,7 +23648,7 @@
         <v>251520</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -23494,7 +23668,7 @@
         <v>194614</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -23514,7 +23688,7 @@
         <v>140541</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -23534,7 +23708,7 @@
         <v>20231215</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -23554,7 +23728,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
@@ -23577,7 +23751,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -23600,7 +23774,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -23623,7 +23797,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -23646,7 +23820,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -23669,7 +23843,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -23692,7 +23866,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -23715,7 +23889,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -23738,7 +23912,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -23761,7 +23935,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -23784,7 +23958,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -23807,7 +23981,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -23845,9 +24019,9 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -23858,7 +24032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -23869,7 +24043,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -23880,7 +24054,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -23891,7 +24065,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -23902,7 +24076,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -23913,7 +24087,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -23924,7 +24098,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -23935,7 +24109,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -23946,7 +24120,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -23957,7 +24131,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -23968,7 +24142,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -23979,7 +24153,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -23990,7 +24164,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -24016,9 +24190,9 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -24059,7 +24233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -24100,7 +24274,7 @@
         <v>141661</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -24141,7 +24315,7 @@
         <v>92680</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -24182,7 +24356,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1">
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -24223,7 +24397,7 @@
         <v>81342</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -24264,7 +24438,7 @@
         <v>335065</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -24305,7 +24479,7 @@
         <v>66173</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -24346,7 +24520,7 @@
         <v>68446</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -24387,7 +24561,7 @@
         <v>77875</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -24428,7 +24602,7 @@
         <v>116271</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -24469,7 +24643,7 @@
         <v>121349</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -24510,7 +24684,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1">
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -24551,7 +24725,7 @@
         <v>22537</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1">
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -24592,7 +24766,7 @@
         <v>107910</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1">
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -24633,7 +24807,7 @@
         <v>193221</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1">
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -24674,7 +24848,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17.25" customHeight="1">
+    <row r="17" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -24715,7 +24889,7 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="17.25" customHeight="1">
+    <row r="19" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -24768,7 +24942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="17.25" customHeight="1">
+    <row r="20" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>20010377</v>
       </c>
@@ -24818,7 +24992,7 @@
         <v>1317281</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="17.25" customHeight="1">
+    <row r="21" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -24871,7 +25045,7 @@
         <v>68478</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17.25" customHeight="1">
+    <row r="22" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -24924,7 +25098,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="17.25" customHeight="1">
+    <row r="23" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -24977,7 +25151,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17.25" customHeight="1">
+    <row r="24" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -25030,7 +25204,7 @@
         <v>24066</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="17.25" customHeight="1">
+    <row r="25" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -25083,7 +25257,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="17.25" customHeight="1">
+    <row r="26" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -25136,7 +25310,7 @@
         <v>15986</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17.25" customHeight="1">
+    <row r="27" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -25189,7 +25363,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17.25" customHeight="1">
+    <row r="28" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -25242,7 +25416,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="17.25" customHeight="1">
+    <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -25295,7 +25469,7 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17.25" customHeight="1">
+    <row r="30" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -25348,7 +25522,7 @@
         <v>15344</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17.25" customHeight="1">
+    <row r="31" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -25401,7 +25575,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17.25" customHeight="1">
+    <row r="32" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -25454,82 +25628,82 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.25" customHeight="1">
+    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>20010377</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="17.25" customHeight="1">
+    <row r="36" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>8318530</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17.25" customHeight="1">
+    <row r="37" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>4578675</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17.25" customHeight="1">
+    <row r="38" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>13573179</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17.25" customHeight="1">
+    <row r="39" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>13995427</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="17.25" customHeight="1">
+    <row r="40" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>9570999</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="17.25" customHeight="1">
+    <row r="41" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>4183259</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="17.25" customHeight="1">
+    <row r="42" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>8377235</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17.25" customHeight="1">
+    <row r="43" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>17391363</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="17.25" customHeight="1">
+    <row r="44" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>19613568</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="17.25" customHeight="1">
+    <row r="45" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>916886</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="17.25" customHeight="1">
+    <row r="46" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>7269547</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="17.25" customHeight="1">
+    <row r="47" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>11784060</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="17.25" customHeight="1">
+    <row r="48" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>12504870</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17.25" customHeight="1">
+    <row r="49" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>556905</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17.25" customHeight="1">
+    <row r="50" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>1317281</v>
       </c>
@@ -25548,9 +25722,9 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -25570,7 +25744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -25590,7 +25764,7 @@
         <v>5753368</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -25610,7 +25784,7 @@
         <v>4334258</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -25630,7 +25804,7 @@
         <v>34239</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -25650,7 +25824,7 @@
         <v>1013222</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -25670,7 +25844,7 @@
         <v>89888</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -25690,7 +25864,7 @@
         <v>2783356</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -25710,7 +25884,7 @@
         <v>457984</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -25730,7 +25904,7 @@
         <v>2169302</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -25750,7 +25924,7 @@
         <v>1469200</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -25770,7 +25944,7 @@
         <v>1311556</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -25790,7 +25964,7 @@
         <v>686733</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -25824,12 +25998,12 @@
       <selection activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
@@ -25861,7 +26035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -25897,7 +26071,7 @@
         <v>203441977</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -25933,7 +26107,7 @@
         <v>10462474</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -25969,7 +26143,7 @@
         <v>8435502</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -26003,7 +26177,7 @@
         <v>114452</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -26039,7 +26213,7 @@
         <v>3474289</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -26073,7 +26247,7 @@
         <v>227430</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -26109,7 +26283,7 @@
         <v>4684644</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -26145,7 +26319,7 @@
         <v>800212</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -26181,7 +26355,7 @@
         <v>4216030</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -26215,7 +26389,7 @@
         <v>3116026</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -26251,7 +26425,7 @@
         <v>3161060</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -26287,7 +26461,7 @@
         <v>1720770</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -26323,7 +26497,7 @@
         <v>1925582</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
@@ -26355,7 +26529,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
@@ -26391,7 +26565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
@@ -26427,7 +26601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -26463,7 +26637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -26499,7 +26673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
@@ -26535,7 +26709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
@@ -26571,7 +26745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
@@ -26607,7 +26781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
@@ -26643,7 +26817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
@@ -26679,7 +26853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -26715,7 +26889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
@@ -26751,7 +26925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
@@ -26787,7 +26961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>11</v>
       </c>
@@ -26838,54 +27012,54 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
     </row>
-    <row r="2" spans="1:14" ht="16">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="1:14" ht="17">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
       <c r="B3" s="61" t="s">
         <v>112</v>
@@ -26902,18 +27076,18 @@
       <c r="H3" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90" t="s">
+      <c r="J3" s="93"/>
+      <c r="K3" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="90"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="62"/>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="1:14" ht="51">
+    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="61" t="s">
         <v>118</v>
@@ -26930,20 +27104,20 @@
       <c r="H4" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="97" t="s">
+      <c r="J4" s="93"/>
+      <c r="K4" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="90"/>
+      <c r="N4" s="93"/>
     </row>
-    <row r="5" spans="1:14" ht="34">
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>124</v>
       </c>
@@ -26975,7 +27149,7 @@
         <v>282406817</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34">
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>125</v>
       </c>
@@ -27007,7 +27181,7 @@
         <v>44760622</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>0</v>
       </c>
@@ -27039,7 +27213,7 @@
         <v>11182111</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51">
+    <row r="8" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>1</v>
       </c>
@@ -27071,7 +27245,7 @@
         <v>8648528</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="34">
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>2</v>
       </c>
@@ -27103,7 +27277,7 @@
         <v>131854</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17">
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>3</v>
       </c>
@@ -27135,7 +27309,7 @@
         <v>3668982</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>4</v>
       </c>
@@ -27167,7 +27341,7 @@
         <v>246371</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>5</v>
       </c>
@@ -27199,7 +27373,7 @@
         <v>4848270</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="68">
+    <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>6</v>
       </c>
@@ -27231,7 +27405,7 @@
         <v>827093</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17">
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>7</v>
       </c>
@@ -27263,7 +27437,7 @@
         <v>4463891</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="34">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>8</v>
       </c>
@@ -27295,7 +27469,7 @@
         <v>3590330</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="34">
+    <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
         <v>9</v>
       </c>
@@ -27327,7 +27501,7 @@
         <v>3304380</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="68">
+    <row r="17" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
         <v>10</v>
       </c>
@@ -27359,7 +27533,7 @@
         <v>1784898</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="51">
+    <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>11</v>
       </c>
@@ -27391,7 +27565,7 @@
         <v>2032470</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>105</v>
       </c>
@@ -27418,12 +27592,12 @@
       <c r="L19" s="72">
         <v>253894500</v>
       </c>
-      <c r="M19" s="91">
+      <c r="M19" s="95">
         <v>327167439</v>
       </c>
-      <c r="N19" s="91"/>
+      <c r="N19" s="95"/>
     </row>
-    <row r="20" spans="1:14" ht="16">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="73"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
@@ -27439,25 +27613,25 @@
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
     </row>
-    <row r="21" spans="1:14" ht="16">
-      <c r="A21" s="92" t="s">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
     </row>
-    <row r="22" spans="1:14" ht="34">
+    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>124</v>
       </c>
@@ -27508,7 +27682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="34">
+    <row r="23" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>125</v>
       </c>
@@ -27547,7 +27721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>0</v>
       </c>
@@ -27586,7 +27760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="51">
+    <row r="25" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
         <v>1</v>
       </c>
@@ -27625,7 +27799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="34">
+    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>2</v>
       </c>
@@ -27664,7 +27838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17">
+    <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
         <v>3</v>
       </c>
@@ -27703,7 +27877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
         <v>4</v>
       </c>
@@ -27742,7 +27916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
         <v>5</v>
       </c>
@@ -27781,7 +27955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="68">
+    <row r="30" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
         <v>6</v>
       </c>
@@ -27820,7 +27994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17">
+    <row r="31" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="67" t="s">
         <v>7</v>
       </c>
@@ -27859,7 +28033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="34">
+    <row r="32" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="67" t="s">
         <v>8</v>
       </c>
@@ -27898,7 +28072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="34">
+    <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
         <v>9</v>
       </c>
@@ -27937,7 +28111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="68">
+    <row r="34" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
         <v>10</v>
       </c>
@@ -27976,7 +28150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="51">
+    <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="80" t="s">
         <v>11</v>
       </c>
@@ -28015,7 +28189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>127</v>
       </c>
@@ -28066,7 +28240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="82"/>
       <c r="B37" s="83"/>
       <c r="C37" s="83"/>
@@ -28082,61 +28256,61 @@
       <c r="M37" s="57"/>
       <c r="N37" s="24"/>
     </row>
-    <row r="38" spans="1:14" ht="16">
-      <c r="A38" s="93" t="s">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
     </row>
-    <row r="39" spans="1:14" ht="16">
-      <c r="A39" s="94" t="s">
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="94"/>
-      <c r="J39" s="94"/>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
     </row>
-    <row r="40" spans="1:14" ht="16">
-      <c r="A40" s="94" t="s">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="94"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="94"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
       <c r="M40" s="84"/>
       <c r="N40" s="24"/>
     </row>
-    <row r="41" spans="1:14" ht="51">
+    <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="85" t="s">
         <v>108</v>
       </c>
@@ -28156,6 +28330,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:L39"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -28163,11 +28342,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:L39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -28182,35 +28356,35 @@
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
       <c r="N1" s="24"/>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>75</v>
       </c>
@@ -28228,7 +28402,7 @@
       <c r="M2" s="100"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="1:14" ht="16">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="101" t="s">
         <v>76</v>
@@ -28248,7 +28422,7 @@
       <c r="M3" s="102"/>
       <c r="N3" s="102"/>
     </row>
-    <row r="4" spans="1:14" ht="17">
+    <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>78</v>
       </c>
@@ -28282,7 +28456,7 @@
       </c>
       <c r="N4" s="104"/>
     </row>
-    <row r="5" spans="1:14" ht="34">
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>83</v>
       </c>
@@ -28324,7 +28498,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34">
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>85</v>
       </c>
@@ -28358,7 +28532,7 @@
       </c>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="1:14" ht="34">
+    <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>86</v>
       </c>
@@ -28396,7 +28570,7 @@
       </c>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:14" ht="17">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>87</v>
       </c>
@@ -28434,7 +28608,7 @@
       </c>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:14" ht="17">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>88</v>
       </c>
@@ -28472,7 +28646,7 @@
       </c>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="1:14" ht="17">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>89</v>
       </c>
@@ -28510,7 +28684,7 @@
       </c>
       <c r="N10" s="44"/>
     </row>
-    <row r="11" spans="1:14" ht="17">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>90</v>
       </c>
@@ -28548,7 +28722,7 @@
       </c>
       <c r="N11" s="44"/>
     </row>
-    <row r="12" spans="1:14" ht="17">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>91</v>
       </c>
@@ -28586,7 +28760,7 @@
       </c>
       <c r="N12" s="44"/>
     </row>
-    <row r="13" spans="1:14" ht="17">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>92</v>
       </c>
@@ -28624,7 +28798,7 @@
       </c>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:14" ht="17">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>93</v>
       </c>
@@ -28662,7 +28836,7 @@
       </c>
       <c r="N14" s="44"/>
     </row>
-    <row r="15" spans="1:14" ht="17">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>94</v>
       </c>
@@ -28700,7 +28874,7 @@
       </c>
       <c r="N15" s="44"/>
     </row>
-    <row r="16" spans="1:14" ht="17">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>95</v>
       </c>
@@ -28738,7 +28912,7 @@
       </c>
       <c r="N16" s="44"/>
     </row>
-    <row r="17" spans="1:14" ht="17">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>96</v>
       </c>
@@ -28776,7 +28950,7 @@
       </c>
       <c r="N17" s="44"/>
     </row>
-    <row r="18" spans="1:14" ht="17">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>97</v>
       </c>
@@ -28814,7 +28988,7 @@
       </c>
       <c r="N18" s="44"/>
     </row>
-    <row r="19" spans="1:14" ht="17">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>98</v>
       </c>
@@ -28852,7 +29026,7 @@
       </c>
       <c r="N19" s="44"/>
     </row>
-    <row r="20" spans="1:14" ht="17">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>99</v>
       </c>
@@ -28890,7 +29064,7 @@
       </c>
       <c r="N20" s="44"/>
     </row>
-    <row r="21" spans="1:14" ht="17">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>100</v>
       </c>
@@ -28928,7 +29102,7 @@
       </c>
       <c r="N21" s="44"/>
     </row>
-    <row r="22" spans="1:14" ht="17">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>101</v>
       </c>
@@ -28966,7 +29140,7 @@
       </c>
       <c r="N22" s="44"/>
     </row>
-    <row r="23" spans="1:14" ht="17">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>102</v>
       </c>
@@ -29004,7 +29178,7 @@
       </c>
       <c r="N23" s="44"/>
     </row>
-    <row r="24" spans="1:14" ht="17">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>103</v>
       </c>
@@ -29042,7 +29216,7 @@
       </c>
       <c r="N24" s="44"/>
     </row>
-    <row r="25" spans="1:14" ht="34">
+    <row r="25" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>104</v>
       </c>
@@ -29080,7 +29254,7 @@
       </c>
       <c r="N25" s="53"/>
     </row>
-    <row r="26" spans="1:14" ht="17">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>105</v>
       </c>
@@ -29126,7 +29300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -29142,7 +29316,7 @@
       <c r="M27" s="14"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="98" t="s">
         <v>106</v>
       </c>
@@ -29160,7 +29334,7 @@
       <c r="M28" s="98"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="98" t="s">
         <v>107</v>
       </c>
@@ -29178,7 +29352,7 @@
       <c r="M29" s="98"/>
       <c r="N29" s="98"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
         <v>108</v>
       </c>
@@ -29224,9 +29398,9 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -29238,7 +29412,7 @@
       </c>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="16">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -29248,7 +29422,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>129</v>
       </c>
@@ -29268,7 +29442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>86</v>
       </c>
@@ -29291,7 +29465,7 @@
         <v>3.4878074490673505</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>87</v>
       </c>
@@ -29314,7 +29488,7 @@
         <v>3.4610704882524135</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>88</v>
       </c>
@@ -29337,7 +29511,7 @@
         <v>3.7490674313290389</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>89</v>
       </c>
@@ -29360,7 +29534,7 @@
         <v>3.6062638672068594</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>90</v>
       </c>
@@ -29383,7 +29557,7 @@
         <v>3.5464614864449255</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>91</v>
       </c>
@@ -29406,7 +29580,7 @@
         <v>3.6178737144294928</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>92</v>
       </c>
@@ -29429,7 +29603,7 @@
         <v>3.1789615050262761</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>93</v>
       </c>
@@ -29452,7 +29626,7 @@
         <v>3.019607703025101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>94</v>
       </c>
@@ -29475,7 +29649,7 @@
         <v>2.7043766439958139</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>95</v>
       </c>
@@ -29498,7 +29672,7 @@
         <v>2.8357477645449332</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>96</v>
       </c>
@@ -29521,7 +29695,7 @@
         <v>2.9208416735917533</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>97</v>
       </c>
@@ -29544,7 +29718,7 @@
         <v>3.104774910585816</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>98</v>
       </c>
@@ -29567,7 +29741,7 @@
         <v>3.0016598359946816</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>99</v>
       </c>
@@ -29590,7 +29764,7 @@
         <v>2.4681932518647383</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>100</v>
       </c>
@@ -29613,7 +29787,7 @@
         <v>1.9200988338748213</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>101</v>
       </c>
@@ -29636,7 +29810,7 @@
         <v>1.2928126306526093</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>102</v>
       </c>
@@ -29659,7 +29833,7 @@
         <v>0.78717150797390278</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>103</v>
       </c>
@@ -29682,7 +29856,7 @@
         <v>0.45186869550673769</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>104</v>
       </c>
@@ -29705,7 +29879,7 @@
         <v>0.23670675060227034</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F25" s="18" t="s">
         <v>129</v>
       </c>
@@ -29716,7 +29890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F26" s="20" t="s">
         <v>86</v>
       </c>
@@ -29727,7 +29901,7 @@
         <v>0.32693915647552885</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F27" s="20" t="s">
         <v>87</v>
       </c>
@@ -29738,7 +29912,7 @@
         <v>0.74659373589580591</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F28" s="20" t="s">
         <v>88</v>
       </c>
@@ -29749,7 +29923,7 @@
         <v>0.98443001976156641</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F29" s="20" t="s">
         <v>89</v>
       </c>
@@ -29760,7 +29934,7 @@
         <v>1.6485963934996257</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F30" s="20" t="s">
         <v>90</v>
       </c>
@@ -29771,7 +29945,7 @@
         <v>2.5433382047282542</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F31" s="20" t="s">
         <v>91</v>
       </c>
@@ -29782,7 +29956,7 @@
         <v>3.60095532184517</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F32" s="20" t="s">
         <v>92</v>
       </c>
@@ -29793,7 +29967,7 @@
         <v>4.7716517433560233</v>
       </c>
     </row>
-    <row r="33" spans="6:8" ht="16">
+    <row r="33" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F33" s="20" t="s">
         <v>93</v>
       </c>
@@ -29804,7 +29978,7 @@
         <v>5.1106751823064478</v>
       </c>
     </row>
-    <row r="34" spans="6:8" ht="16">
+    <row r="34" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F34" s="20" t="s">
         <v>94</v>
       </c>
@@ -29815,7 +29989,7 @@
         <v>5.178346270523229</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="16">
+    <row r="35" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F35" s="20" t="s">
         <v>95</v>
       </c>
@@ -29826,7 +30000,7 @@
         <v>4.9843141143123528</v>
       </c>
     </row>
-    <row r="36" spans="6:8" ht="16">
+    <row r="36" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F36" s="20" t="s">
         <v>96</v>
       </c>
@@ -29837,7 +30011,7 @@
         <v>4.4710035530784173</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="16">
+    <row r="37" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F37" s="20" t="s">
         <v>97</v>
       </c>
@@ -29848,7 +30022,7 @@
         <v>3.8129362902955188</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="16">
+    <row r="38" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F38" s="20" t="s">
         <v>98</v>
       </c>
@@ -29859,7 +30033,7 @@
         <v>3.2087579122560004</v>
       </c>
     </row>
-    <row r="39" spans="6:8" ht="16">
+    <row r="39" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="20" t="s">
         <v>99</v>
       </c>
@@ -29870,7 +30044,7 @@
         <v>2.4340970954335712</v>
       </c>
     </row>
-    <row r="40" spans="6:8" ht="16">
+    <row r="40" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F40" s="20" t="s">
         <v>100</v>
       </c>
@@ -29881,7 +30055,7 @@
         <v>1.7795396140831108</v>
       </c>
     </row>
-    <row r="41" spans="6:8" ht="16">
+    <row r="41" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F41" s="20" t="s">
         <v>101</v>
       </c>
@@ -29892,7 +30066,7 @@
         <v>1.1943332690953223</v>
       </c>
     </row>
-    <row r="42" spans="6:8" ht="16">
+    <row r="42" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F42" s="20" t="s">
         <v>102</v>
       </c>
@@ -29903,7 +30077,7 @@
         <v>0.79006498167071937</v>
       </c>
     </row>
-    <row r="43" spans="6:8" ht="16">
+    <row r="43" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F43" s="20" t="s">
         <v>103</v>
       </c>
@@ -29914,7 +30088,7 @@
         <v>0.41348397705465306</v>
       </c>
     </row>
-    <row r="44" spans="6:8" ht="16">
+    <row r="44" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F44" s="20" t="s">
         <v>104</v>
       </c>

--- a/Data/Migration Map Data.xlsx
+++ b/Data/Migration Map Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxwelloteng/Desktop/DataClass/project_2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://evidant-my.sharepoint.com/personal/sdleslie_evidant_com/Documents/Education/UCI Data Boot Camp/Git Master/project_2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC86CE3D-AC2C-6645-8B27-229B8C2AC1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="6_{48356985-E46C-48BA-8845-4BE50B7E834C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{64364AC0-F06F-46E3-8187-1388BE672F60}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="520" windowWidth="40520" windowHeight="16680" activeTab="7" xr2:uid="{0989B1F8-E95E-479E-8A3C-F17C8275F488}"/>
+    <workbookView xWindow="11130" yWindow="6195" windowWidth="27975" windowHeight="17280" xr2:uid="{0989B1F8-E95E-479E-8A3C-F17C8275F488}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -24,54 +24,26 @@
     <sheet name="age-gender-pyramid-chart" sheetId="6" r:id="rId9"/>
     <sheet name="workforce" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'median income'!$A$2:$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'median income'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Education attainment'!$E$49</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Education attainment'!$E$50:$E$62</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Education attainment'!$F$49</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Education attainment'!$F$50:$F$62</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Education attainment'!$G$49</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Education attainment'!$G$50:$G$62</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Education attainment'!$H$49</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Education attainment'!$H$50:$H$62</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Education attainment'!$I$49</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Education attainment'!$I$50:$I$62</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'median income'!$B$2:$B$14</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Education attainment'!$B$50:$B$62</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Education attainment'!$C$49</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Education attainment'!$C$50:$C$62</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Education attainment'!$D$49</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Education attainment'!$D$50:$D$62</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Education attainment'!$E$49</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Education attainment'!$E$50:$E$62</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Education attainment'!$F$49</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Education attainment'!$F$50:$F$62</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Education attainment'!$G$49</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'median income'!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Education attainment'!$G$50:$G$62</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Education attainment'!$H$49</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Education attainment'!$H$50:$H$62</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Education attainment'!$I$49</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Education attainment'!$I$50:$I$62</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'median income'!$C$2:$C$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Education attainment'!$B$50:$B$62</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Education attainment'!$C$49</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Education attainment'!$C$50:$C$62</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Education attainment'!$D$49</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Education attainment'!$D$50:$D$62</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="133">
   <si>
     <t>Mexico</t>
   </si>
@@ -469,6 +441,12 @@
   <si>
     <t>USA</t>
   </si>
+  <si>
+    <t>Full Time</t>
+  </si>
+  <si>
+    <t>Part Time</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +459,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,7 +1004,19 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1037,18 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3987,14 +3965,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Demographics:</a:t>
+              <a:rPr lang="en-US" sz="2000" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Median Income by Birth Country</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> Median Income by Region of Birth</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4002,8 +3982,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36673233994961535"/>
-          <c:y val="1.2903225806451613E-2"/>
+          <c:x val="0.39738063870420864"/>
+          <c:y val="2.5806451612903226E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4037,7 +4017,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24579331429725129"/>
+          <c:y val="0.11096774193548387"/>
+          <c:w val="0.61103187393404623"/>
+          <c:h val="0.82916576073152148"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -4051,7 +4041,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Median_Income_FT </c:v>
+                  <c:v> Full Time </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4176,7 +4166,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Median_Income_PT </c:v>
+                  <c:v> Part Time </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4334,16 +4324,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4390,16 +4380,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4423,10 +4413,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85770828861600334"/>
-          <c:y val="0.2093994411988824"/>
-          <c:w val="0.13428668567379609"/>
-          <c:h val="8.6195891964264346E-2"/>
+          <c:x val="0.86900587975953558"/>
+          <c:y val="7.26252476504953E-2"/>
+          <c:w val="9.8917909986526414E-2"/>
+          <c:h val="0.10942179324358649"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4442,16 +4432,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -19063,16 +19053,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19666,49 +19656,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DDECC5-6D04-4C9B-9DE0-A6112A9F947E}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="93" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="93" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="93" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="93" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="93" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="93" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="93" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="93" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="93" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="93" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="94" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="93" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="93" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="93" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="93" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="93" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="17.5" style="93" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" style="93" hidden="1" customWidth="1"/>
-    <col min="19" max="21" width="17.1640625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="93" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="93" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="93" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="93" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="94" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="93" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="93" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="93" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="93" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="93" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="17.42578125" style="93" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" style="93" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="17.140625" style="93" customWidth="1"/>
     <col min="22" max="23" width="15" style="93" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" style="93" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="93" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5" style="93" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" style="93" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="93" customWidth="1"/>
-    <col min="28" max="28" width="15.5" style="93" customWidth="1"/>
-    <col min="29" max="29" width="22.33203125" style="93" customWidth="1"/>
-    <col min="30" max="30" width="13.83203125" style="93" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5" style="93" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" style="93" customWidth="1"/>
-    <col min="33" max="33" width="16.5" style="93" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" style="93" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" style="93" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" style="93" customWidth="1"/>
+    <col min="30" max="30" width="13.85546875" style="93" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" style="93" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" style="93" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" style="93" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" style="93" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="14" style="93" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.1640625" style="93" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" style="93" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9" style="93" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="13" style="93" customWidth="1"/>
-    <col min="39" max="16384" width="9.1640625" style="93"/>
+    <col min="39" max="16384" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="90" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:38" s="90" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>43</v>
       </c>
@@ -19824,7 +19814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>12</v>
       </c>
@@ -19930,7 +19920,7 @@
         <v>1317281</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
         <v>0</v>
       </c>
@@ -20046,7 +20036,7 @@
         <v>68478</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>1</v>
       </c>
@@ -20162,7 +20152,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="101" t="s">
         <v>2</v>
       </c>
@@ -20276,7 +20266,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>3</v>
       </c>
@@ -20392,7 +20382,7 @@
         <v>24066</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="101" t="s">
         <v>4</v>
       </c>
@@ -20506,7 +20496,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
         <v>5</v>
       </c>
@@ -20622,7 +20612,7 @@
         <v>15986</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="101" t="s">
         <v>6</v>
       </c>
@@ -20738,7 +20728,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>7</v>
       </c>
@@ -20854,7 +20844,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="101" t="s">
         <v>8</v>
       </c>
@@ -20968,7 +20958,7 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="101" t="s">
         <v>9</v>
       </c>
@@ -21084,7 +21074,7 @@
         <v>15344</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>10</v>
       </c>
@@ -21200,7 +21190,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
         <v>11</v>
       </c>
@@ -21331,9 +21321,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="32">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -21386,7 +21376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -21439,7 +21429,7 @@
         <v>68478</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -21492,7 +21482,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -21545,7 +21535,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -21598,7 +21588,7 @@
         <v>24066</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -21651,7 +21641,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -21704,7 +21694,7 @@
         <v>15986</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -21757,7 +21747,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -21810,7 +21800,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -21863,7 +21853,7 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -21916,7 +21906,7 @@
         <v>15344</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -21969,7 +21959,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -22022,7 +22012,7 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -22041,7 +22031,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" ht="32">
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -22091,7 +22081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>130</v>
       </c>
@@ -22158,9 +22148,9 @@
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -22180,7 +22170,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -22200,7 +22190,7 @@
         <v>361893</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -22220,7 +22210,7 @@
         <v>930333</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -22240,7 +22230,7 @@
         <v>10376</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -22260,7 +22250,7 @@
         <v>628139</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -22280,7 +22270,7 @@
         <v>28837</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -22300,7 +22290,7 @@
         <v>636009</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -22320,7 +22310,7 @@
         <v>135332</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -22340,7 +22330,7 @@
         <v>253729</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -22360,7 +22350,7 @@
         <v>142635</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -22380,7 +22370,7 @@
         <v>251520</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -22400,7 +22390,7 @@
         <v>194614</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -22420,7 +22410,7 @@
         <v>140541</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -22440,7 +22430,7 @@
         <v>20231215</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -22460,7 +22450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>0</v>
       </c>
@@ -22483,7 +22473,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -22506,7 +22496,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>2</v>
       </c>
@@ -22529,7 +22519,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -22552,7 +22542,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -22575,7 +22565,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -22598,7 +22588,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -22621,7 +22611,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -22644,7 +22634,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
@@ -22667,7 +22657,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -22690,7 +22680,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -22713,7 +22703,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -22745,29 +22735,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC16B50-6887-2546-98B9-F580222B7FFA}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -22778,7 +22768,7 @@
         <v>-35000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -22789,7 +22779,7 @@
         <v>-26000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -22800,7 +22790,7 @@
         <v>-39000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -22811,7 +22801,7 @@
         <v>-32000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -22822,7 +22812,7 @@
         <v>-62000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -22833,7 +22823,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -22844,7 +22834,7 @@
         <v>-48600</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -22855,7 +22845,7 @@
         <v>-56000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -22866,7 +22856,7 @@
         <v>-29400</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -22877,7 +22867,7 @@
         <v>-25200</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -22888,7 +22878,7 @@
         <v>-31200</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -22899,7 +22889,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -22908,16 +22898,6 @@
       </c>
       <c r="C14" s="4">
         <v>-32000</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="D17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -22935,9 +22915,9 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -22978,7 +22958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -23019,7 +22999,7 @@
         <v>141661</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1">
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -23060,7 +23040,7 @@
         <v>92680</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1">
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -23101,7 +23081,7 @@
         <v>44282</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1">
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -23142,7 +23122,7 @@
         <v>81342</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -23183,7 +23163,7 @@
         <v>335065</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1">
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -23224,7 +23204,7 @@
         <v>66173</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" customHeight="1">
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
@@ -23265,7 +23245,7 @@
         <v>68446</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25" customHeight="1">
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -23306,7 +23286,7 @@
         <v>77875</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17.25" customHeight="1">
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -23347,7 +23327,7 @@
         <v>116271</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.25" customHeight="1">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -23388,7 +23368,7 @@
         <v>121349</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -23429,7 +23409,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25" customHeight="1">
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -23470,7 +23450,7 @@
         <v>22537</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" customHeight="1">
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -23511,7 +23491,7 @@
         <v>107910</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1">
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -23552,7 +23532,7 @@
         <v>193221</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25" customHeight="1">
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -23593,7 +23573,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17.25" customHeight="1">
+    <row r="17" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -23634,7 +23614,7 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="17.25" customHeight="1">
+    <row r="19" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -23687,7 +23667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="17.25" customHeight="1">
+    <row r="20" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>20010377</v>
       </c>
@@ -23737,7 +23717,7 @@
         <v>1317281</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="17.25" customHeight="1">
+    <row r="21" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -23790,7 +23770,7 @@
         <v>68478</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17.25" customHeight="1">
+    <row r="22" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -23843,7 +23823,7 @@
         <v>39188</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="17.25" customHeight="1">
+    <row r="23" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -23896,7 +23876,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="17.25" customHeight="1">
+    <row r="24" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -23949,7 +23929,7 @@
         <v>24066</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="17.25" customHeight="1">
+    <row r="25" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -24002,7 +23982,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="17.25" customHeight="1">
+    <row r="26" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -24055,7 +24035,7 @@
         <v>15986</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="17.25" customHeight="1">
+    <row r="27" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -24108,7 +24088,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="17.25" customHeight="1">
+    <row r="28" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -24161,7 +24141,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="17.25" customHeight="1">
+    <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -24214,7 +24194,7 @@
         <v>21807</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="17.25" customHeight="1">
+    <row r="30" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -24267,7 +24247,7 @@
         <v>15344</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17.25" customHeight="1">
+    <row r="31" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -24320,7 +24300,7 @@
         <v>14942</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="17.25" customHeight="1">
+    <row r="32" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -24373,82 +24353,82 @@
         <v>16584</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.25" customHeight="1">
+    <row r="35" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>20010377</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="17.25" customHeight="1">
+    <row r="36" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>8318530</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="17.25" customHeight="1">
+    <row r="37" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>4578675</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="17.25" customHeight="1">
+    <row r="38" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>13573179</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="17.25" customHeight="1">
+    <row r="39" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>13995427</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="17.25" customHeight="1">
+    <row r="40" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>9570999</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="17.25" customHeight="1">
+    <row r="41" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>4183259</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="17.25" customHeight="1">
+    <row r="42" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>8377235</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="17.25" customHeight="1">
+    <row r="43" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>17391363</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="17.25" customHeight="1">
+    <row r="44" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>19613568</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="17.25" customHeight="1">
+    <row r="45" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>916886</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="17.25" customHeight="1">
+    <row r="46" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>7269547</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="17.25" customHeight="1">
+    <row r="47" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>11784060</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="17.25" customHeight="1">
+    <row r="48" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>12504870</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="17.25" customHeight="1">
+    <row r="49" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>556905</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="17.25" customHeight="1">
+    <row r="50" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>1317281</v>
       </c>
@@ -24467,9 +24447,9 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -24489,7 +24469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -24509,7 +24489,7 @@
         <v>5753368</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -24529,7 +24509,7 @@
         <v>4334258</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -24549,7 +24529,7 @@
         <v>34239</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -24569,7 +24549,7 @@
         <v>1013222</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -24589,7 +24569,7 @@
         <v>89888</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -24609,7 +24589,7 @@
         <v>2783356</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -24629,7 +24609,7 @@
         <v>457984</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -24649,7 +24629,7 @@
         <v>2169302</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24669,7 +24649,7 @@
         <v>1469200</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -24689,7 +24669,7 @@
         <v>1311556</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -24709,7 +24689,7 @@
         <v>686733</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -24743,13 +24723,13 @@
       <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
@@ -24781,7 +24761,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -24817,7 +24797,7 @@
         <v>203441977</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -24853,7 +24833,7 @@
         <v>10462474</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -24889,7 +24869,7 @@
         <v>8435502</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -24923,7 +24903,7 @@
         <v>114452</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -24959,7 +24939,7 @@
         <v>3474289</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -24993,7 +24973,7 @@
         <v>227430</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -25029,7 +25009,7 @@
         <v>4684644</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -25065,7 +25045,7 @@
         <v>800212</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -25101,7 +25081,7 @@
         <v>4216030</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -25135,7 +25115,7 @@
         <v>3116026</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -25171,7 +25151,7 @@
         <v>3161060</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -25207,7 +25187,7 @@
         <v>1720770</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -25243,7 +25223,7 @@
         <v>1925582</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
@@ -25275,7 +25255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
@@ -25311,7 +25291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
@@ -25347,7 +25327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
@@ -25383,7 +25363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>2</v>
       </c>
@@ -25419,7 +25399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>3</v>
       </c>
@@ -25455,7 +25435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
@@ -25491,7 +25471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>5</v>
       </c>
@@ -25527,7 +25507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
@@ -25563,7 +25543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
@@ -25599,7 +25579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -25635,7 +25615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
@@ -25671,7 +25651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
@@ -25707,7 +25687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>11</v>
       </c>
@@ -25743,7 +25723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
@@ -25772,7 +25752,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
@@ -25801,7 +25781,7 @@
         <v>184555298</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
@@ -25830,7 +25810,7 @@
         <v>10069030</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
@@ -25859,7 +25839,7 @@
         <v>7618548</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
@@ -25886,7 +25866,7 @@
         <v>101852</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>3</v>
       </c>
@@ -25915,7 +25895,7 @@
         <v>3168503</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
@@ -25942,7 +25922,7 @@
         <v>209306</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>5</v>
       </c>
@@ -25971,7 +25951,7 @@
         <v>4413581</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
@@ -26000,7 +25980,7 @@
         <v>745687</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
@@ -26029,7 +26009,7 @@
         <v>3927095</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>8</v>
       </c>
@@ -26058,7 +26038,7 @@
         <v>3031989</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>9</v>
       </c>
@@ -26087,7 +26067,7 @@
         <v>2897536</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
@@ -26116,7 +26096,7 @@
         <v>1523236</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>11</v>
       </c>
@@ -26145,7 +26125,7 @@
         <v>1617749</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>43</v>
       </c>
@@ -26174,7 +26154,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>12</v>
       </c>
@@ -26203,7 +26183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>0</v>
       </c>
@@ -26232,7 +26212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>1</v>
       </c>
@@ -26261,7 +26241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>2</v>
       </c>
@@ -26290,7 +26270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
@@ -26319,7 +26299,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
@@ -26348,7 +26328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>5</v>
       </c>
@@ -26377,7 +26357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>6</v>
       </c>
@@ -26406,7 +26386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>7</v>
       </c>
@@ -26435,7 +26415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>8</v>
       </c>
@@ -26464,7 +26444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>9</v>
       </c>
@@ -26493,7 +26473,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>10</v>
       </c>
@@ -26522,7 +26502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>11</v>
       </c>
@@ -26566,54 +26546,54 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
     </row>
-    <row r="2" spans="1:14" ht="16">
-      <c r="A2" s="109" t="s">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="1:14" ht="17">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
       <c r="B3" s="61" t="s">
         <v>112</v>
@@ -26630,18 +26610,18 @@
       <c r="H3" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103" t="s">
+      <c r="J3" s="106"/>
+      <c r="K3" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="103"/>
+      <c r="L3" s="106"/>
       <c r="M3" s="62"/>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="1:14" ht="51">
+    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="61" t="s">
         <v>118</v>
@@ -26658,20 +26638,20 @@
       <c r="H4" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="I4" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="110" t="s">
+      <c r="J4" s="106"/>
+      <c r="K4" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="103" t="s">
+      <c r="L4" s="107"/>
+      <c r="M4" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="103"/>
-    </row>
-    <row r="5" spans="1:14" ht="17">
+      <c r="N4" s="106"/>
+    </row>
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>124</v>
       </c>
@@ -26703,7 +26683,7 @@
         <v>282406817</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34">
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>125</v>
       </c>
@@ -26735,7 +26715,7 @@
         <v>44760622</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>0</v>
       </c>
@@ -26767,7 +26747,7 @@
         <v>11182111</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51">
+    <row r="8" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>1</v>
       </c>
@@ -26799,7 +26779,7 @@
         <v>8648528</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="34">
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>2</v>
       </c>
@@ -26831,7 +26811,7 @@
         <v>131854</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17">
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>3</v>
       </c>
@@ -26863,7 +26843,7 @@
         <v>3668982</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>4</v>
       </c>
@@ -26895,7 +26875,7 @@
         <v>246371</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>5</v>
       </c>
@@ -26927,7 +26907,7 @@
         <v>4848270</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="68">
+    <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>6</v>
       </c>
@@ -26959,7 +26939,7 @@
         <v>827093</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17">
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>7</v>
       </c>
@@ -26991,7 +26971,7 @@
         <v>4463891</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="34">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>8</v>
       </c>
@@ -27023,7 +27003,7 @@
         <v>3590330</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="34">
+    <row r="16" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
         <v>9</v>
       </c>
@@ -27055,7 +27035,7 @@
         <v>3304380</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="51">
+    <row r="17" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
         <v>10</v>
       </c>
@@ -27087,7 +27067,7 @@
         <v>1784898</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="51">
+    <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>11</v>
       </c>
@@ -27119,7 +27099,7 @@
         <v>2032470</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>105</v>
       </c>
@@ -27146,12 +27126,12 @@
       <c r="L19" s="72">
         <v>253894500</v>
       </c>
-      <c r="M19" s="104">
+      <c r="M19" s="108">
         <v>327167439</v>
       </c>
-      <c r="N19" s="104"/>
-    </row>
-    <row r="20" spans="1:14" ht="16">
+      <c r="N19" s="108"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="73"/>
       <c r="B20" s="74"/>
       <c r="C20" s="74"/>
@@ -27167,25 +27147,25 @@
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
     </row>
-    <row r="21" spans="1:14" ht="16">
-      <c r="A21" s="105" t="s">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
     </row>
-    <row r="22" spans="1:14" ht="17">
+    <row r="22" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>124</v>
       </c>
@@ -27236,7 +27216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="34">
+    <row r="23" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>125</v>
       </c>
@@ -27275,7 +27255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>0</v>
       </c>
@@ -27314,7 +27294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="51">
+    <row r="25" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
         <v>1</v>
       </c>
@@ -27353,7 +27333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="34">
+    <row r="26" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>2</v>
       </c>
@@ -27392,7 +27372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17">
+    <row r="27" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
         <v>3</v>
       </c>
@@ -27431,7 +27411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
         <v>4</v>
       </c>
@@ -27470,7 +27450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
         <v>5</v>
       </c>
@@ -27509,7 +27489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="68">
+    <row r="30" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
         <v>6</v>
       </c>
@@ -27548,7 +27528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17">
+    <row r="31" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="67" t="s">
         <v>7</v>
       </c>
@@ -27587,7 +27567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="34">
+    <row r="32" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="67" t="s">
         <v>8</v>
       </c>
@@ -27626,7 +27606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="34">
+    <row r="33" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
         <v>9</v>
       </c>
@@ -27665,7 +27645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="51">
+    <row r="34" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
         <v>10</v>
       </c>
@@ -27704,7 +27684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="51">
+    <row r="35" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="80" t="s">
         <v>11</v>
       </c>
@@ -27743,7 +27723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17">
+    <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="82" t="s">
         <v>127</v>
       </c>
@@ -27794,7 +27774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16">
+    <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="82"/>
       <c r="B37" s="83"/>
       <c r="C37" s="83"/>
@@ -27810,61 +27790,61 @@
       <c r="M37" s="57"/>
       <c r="N37" s="24"/>
     </row>
-    <row r="38" spans="1:14" ht="16">
-      <c r="A38" s="106" t="s">
+    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-    </row>
-    <row r="39" spans="1:14" ht="16">
-      <c r="A39" s="107" t="s">
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
     </row>
-    <row r="40" spans="1:14" ht="16">
-      <c r="A40" s="107" t="s">
+    <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
       <c r="M40" s="84"/>
       <c r="N40" s="24"/>
     </row>
-    <row r="41" spans="1:14" ht="51">
+    <row r="41" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="85" t="s">
         <v>108</v>
       </c>
@@ -27884,6 +27864,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:L39"/>
     <mergeCell ref="A40:L40"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
@@ -27891,11 +27876,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:L39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -27906,39 +27886,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCC33E2-2539-CD43-AC4A-8F37F5D6240C}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65:E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="24"/>
     </row>
-    <row r="2" spans="1:14" ht="16">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="113" t="s">
         <v>75</v>
       </c>
@@ -27956,7 +27936,7 @@
       <c r="M2" s="113"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="1:14" ht="16">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="114" t="s">
         <v>76</v>
@@ -27976,7 +27956,7 @@
       <c r="M3" s="115"/>
       <c r="N3" s="115"/>
     </row>
-    <row r="4" spans="1:14" ht="17">
+    <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>78</v>
       </c>
@@ -28010,7 +27990,7 @@
       </c>
       <c r="N4" s="117"/>
     </row>
-    <row r="5" spans="1:14" ht="34">
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>83</v>
       </c>
@@ -28052,7 +28032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17">
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>85</v>
       </c>
@@ -28086,7 +28066,7 @@
       </c>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="1:14" ht="34">
+    <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>86</v>
       </c>
@@ -28124,7 +28104,7 @@
       </c>
       <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="1:14" ht="17">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>87</v>
       </c>
@@ -28162,7 +28142,7 @@
       </c>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:14" ht="17">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>88</v>
       </c>
@@ -28200,7 +28180,7 @@
       </c>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="1:14" ht="17">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>89</v>
       </c>
@@ -28238,7 +28218,7 @@
       </c>
       <c r="N10" s="44"/>
     </row>
-    <row r="11" spans="1:14" ht="17">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>90</v>
       </c>
@@ -28276,7 +28256,7 @@
       </c>
       <c r="N11" s="44"/>
     </row>
-    <row r="12" spans="1:14" ht="17">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>91</v>
       </c>
@@ -28314,7 +28294,7 @@
       </c>
       <c r="N12" s="44"/>
     </row>
-    <row r="13" spans="1:14" ht="17">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>92</v>
       </c>
@@ -28352,7 +28332,7 @@
       </c>
       <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="1:14" ht="17">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>93</v>
       </c>
@@ -28390,7 +28370,7 @@
       </c>
       <c r="N14" s="44"/>
     </row>
-    <row r="15" spans="1:14" ht="17">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>94</v>
       </c>
@@ -28428,7 +28408,7 @@
       </c>
       <c r="N15" s="44"/>
     </row>
-    <row r="16" spans="1:14" ht="17">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>95</v>
       </c>
@@ -28466,7 +28446,7 @@
       </c>
       <c r="N16" s="44"/>
     </row>
-    <row r="17" spans="1:14" ht="17">
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>96</v>
       </c>
@@ -28504,7 +28484,7 @@
       </c>
       <c r="N17" s="44"/>
     </row>
-    <row r="18" spans="1:14" ht="17">
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>97</v>
       </c>
@@ -28542,7 +28522,7 @@
       </c>
       <c r="N18" s="44"/>
     </row>
-    <row r="19" spans="1:14" ht="17">
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>98</v>
       </c>
@@ -28580,7 +28560,7 @@
       </c>
       <c r="N19" s="44"/>
     </row>
-    <row r="20" spans="1:14" ht="17">
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>99</v>
       </c>
@@ -28618,7 +28598,7 @@
       </c>
       <c r="N20" s="44"/>
     </row>
-    <row r="21" spans="1:14" ht="17">
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>100</v>
       </c>
@@ -28656,7 +28636,7 @@
       </c>
       <c r="N21" s="44"/>
     </row>
-    <row r="22" spans="1:14" ht="17">
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>101</v>
       </c>
@@ -28694,7 +28674,7 @@
       </c>
       <c r="N22" s="44"/>
     </row>
-    <row r="23" spans="1:14" ht="17">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>102</v>
       </c>
@@ -28732,7 +28712,7 @@
       </c>
       <c r="N23" s="44"/>
     </row>
-    <row r="24" spans="1:14" ht="17">
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>103</v>
       </c>
@@ -28770,7 +28750,7 @@
       </c>
       <c r="N24" s="44"/>
     </row>
-    <row r="25" spans="1:14" ht="17">
+    <row r="25" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>104</v>
       </c>
@@ -28808,7 +28788,7 @@
       </c>
       <c r="N25" s="53"/>
     </row>
-    <row r="26" spans="1:14" ht="17">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>105</v>
       </c>
@@ -28854,7 +28834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -28870,7 +28850,7 @@
       <c r="M27" s="14"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>106</v>
       </c>
@@ -28888,7 +28868,7 @@
       <c r="M28" s="111"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="111" t="s">
         <v>107</v>
       </c>
@@ -28906,7 +28886,7 @@
       <c r="M29" s="111"/>
       <c r="N29" s="111"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="112" t="s">
         <v>108</v>
       </c>
@@ -28952,9 +28932,9 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -28966,7 +28946,7 @@
       </c>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="16">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -28976,7 +28956,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="16">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>129</v>
       </c>
@@ -28996,7 +28976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>86</v>
       </c>
@@ -29019,7 +28999,7 @@
         <v>3.4878074490673505</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>87</v>
       </c>
@@ -29042,7 +29022,7 @@
         <v>3.4610704882524135</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>88</v>
       </c>
@@ -29065,7 +29045,7 @@
         <v>3.7490674313290389</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>89</v>
       </c>
@@ -29088,7 +29068,7 @@
         <v>3.6062638672068594</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>90</v>
       </c>
@@ -29111,7 +29091,7 @@
         <v>3.5464614864449255</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>91</v>
       </c>
@@ -29134,7 +29114,7 @@
         <v>3.6178737144294928</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>92</v>
       </c>
@@ -29157,7 +29137,7 @@
         <v>3.1789615050262761</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>93</v>
       </c>
@@ -29180,7 +29160,7 @@
         <v>3.019607703025101</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>94</v>
       </c>
@@ -29203,7 +29183,7 @@
         <v>2.7043766439958139</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>95</v>
       </c>
@@ -29226,7 +29206,7 @@
         <v>2.8357477645449332</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>96</v>
       </c>
@@ -29249,7 +29229,7 @@
         <v>2.9208416735917533</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>97</v>
       </c>
@@ -29272,7 +29252,7 @@
         <v>3.104774910585816</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>98</v>
       </c>
@@ -29295,7 +29275,7 @@
         <v>3.0016598359946816</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>99</v>
       </c>
@@ -29318,7 +29298,7 @@
         <v>2.4681932518647383</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>100</v>
       </c>
@@ -29341,7 +29321,7 @@
         <v>1.9200988338748213</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>101</v>
       </c>
@@ -29364,7 +29344,7 @@
         <v>1.2928126306526093</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>102</v>
       </c>
@@ -29387,7 +29367,7 @@
         <v>0.78717150797390278</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>103</v>
       </c>
@@ -29410,7 +29390,7 @@
         <v>0.45186869550673769</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>104</v>
       </c>
@@ -29433,7 +29413,7 @@
         <v>0.23670675060227034</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F25" s="18" t="s">
         <v>129</v>
       </c>
@@ -29444,7 +29424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F26" s="20" t="s">
         <v>86</v>
       </c>
@@ -29455,7 +29435,7 @@
         <v>0.32693915647552885</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F27" s="20" t="s">
         <v>87</v>
       </c>
@@ -29466,7 +29446,7 @@
         <v>0.74659373589580591</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F28" s="20" t="s">
         <v>88</v>
       </c>
@@ -29477,7 +29457,7 @@
         <v>0.98443001976156641</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F29" s="20" t="s">
         <v>89</v>
       </c>
@@ -29488,7 +29468,7 @@
         <v>1.6485963934996257</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F30" s="20" t="s">
         <v>90</v>
       </c>
@@ -29499,7 +29479,7 @@
         <v>2.5433382047282542</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F31" s="20" t="s">
         <v>91</v>
       </c>
@@ -29510,7 +29490,7 @@
         <v>3.60095532184517</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F32" s="20" t="s">
         <v>92</v>
       </c>
@@ -29521,7 +29501,7 @@
         <v>4.7716517433560233</v>
       </c>
     </row>
-    <row r="33" spans="6:8" ht="16">
+    <row r="33" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F33" s="20" t="s">
         <v>93</v>
       </c>
@@ -29532,7 +29512,7 @@
         <v>5.1106751823064478</v>
       </c>
     </row>
-    <row r="34" spans="6:8" ht="16">
+    <row r="34" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F34" s="20" t="s">
         <v>94</v>
       </c>
@@ -29543,7 +29523,7 @@
         <v>5.178346270523229</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="16">
+    <row r="35" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F35" s="20" t="s">
         <v>95</v>
       </c>
@@ -29554,7 +29534,7 @@
         <v>4.9843141143123528</v>
       </c>
     </row>
-    <row r="36" spans="6:8" ht="16">
+    <row r="36" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F36" s="20" t="s">
         <v>96</v>
       </c>
@@ -29565,7 +29545,7 @@
         <v>4.4710035530784173</v>
       </c>
     </row>
-    <row r="37" spans="6:8" ht="16">
+    <row r="37" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F37" s="20" t="s">
         <v>97</v>
       </c>
@@ -29576,7 +29556,7 @@
         <v>3.8129362902955188</v>
       </c>
     </row>
-    <row r="38" spans="6:8" ht="16">
+    <row r="38" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F38" s="20" t="s">
         <v>98</v>
       </c>
@@ -29587,7 +29567,7 @@
         <v>3.2087579122560004</v>
       </c>
     </row>
-    <row r="39" spans="6:8" ht="16">
+    <row r="39" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F39" s="20" t="s">
         <v>99</v>
       </c>
@@ -29598,7 +29578,7 @@
         <v>2.4340970954335712</v>
       </c>
     </row>
-    <row r="40" spans="6:8" ht="16">
+    <row r="40" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F40" s="20" t="s">
         <v>100</v>
       </c>
@@ -29609,7 +29589,7 @@
         <v>1.7795396140831108</v>
       </c>
     </row>
-    <row r="41" spans="6:8" ht="16">
+    <row r="41" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F41" s="20" t="s">
         <v>101</v>
       </c>
@@ -29620,7 +29600,7 @@
         <v>1.1943332690953223</v>
       </c>
     </row>
-    <row r="42" spans="6:8" ht="16">
+    <row r="42" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F42" s="20" t="s">
         <v>102</v>
       </c>
@@ -29631,7 +29611,7 @@
         <v>0.79006498167071937</v>
       </c>
     </row>
-    <row r="43" spans="6:8" ht="16">
+    <row r="43" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F43" s="20" t="s">
         <v>103</v>
       </c>
@@ -29642,7 +29622,7 @@
         <v>0.41348397705465306</v>
       </c>
     </row>
-    <row r="44" spans="6:8" ht="16">
+    <row r="44" spans="6:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F44" s="20" t="s">
         <v>104</v>
       </c>
